--- a/Primer.xlsx
+++ b/Primer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>https://img1.akspic.ru/crops/2/7/6/5/6/165672/165672-metropoliya-synthwave-cifrovoe_iskusstvo-art-risovanie-3840x2160.jpg</t>
   </si>
@@ -38,9 +38,6 @@
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAH4AqAMBEQACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAECBQYHAP/EAD8QAAIBAwIDBQQIBAQHAQAAAAECAwAEERIhBTFBEyJRYXEGMoGRFCNCUoKhsdFiweHwMzRDchUWJESSk8IH/8QAGwEAAwEBAQEBAAAAAAAAAAAAAQIDBAAFBgf/xAA3EQACAQIFAgMHAwMEAwEAAAABAgADEQQSITFBE1EFIjIUUmFxgZGhFULRseHwM6LB8UNikgb/2gAMAwEAAhEDEQA/APJciv0AWEwWlhiqi0EsAKrYRZYDNEQXlgKcQXlgK6CWxXWgvJUYNdaC8MNxuM0JMyskYcaSCM1NgCLGMrW5gRbJH75OPM7VNKSruZTqk7QczwMpAkGfKkqV6JUgNHRXG4gBOsa4DZPlWdcWiLYG8fJcypKyyDJxnxoF6dZtY2qiGFuoU404HXNaRh0C6WidQ3lIkjibV2ik/OoUaVKi18wvCxZha0kPGHwcH4VQVKQbLBla0sABnG5/SnAA2nGWRHzqJzt1NOiMNSYpYWtJJbO4p/NBYSCx9KF4bRUGsamWhFxV1IiGEUjqRVQwikQi4p8wiES2K68E+yQRtQLm2k6SSOuaGYTtZGwPM/GhedLa8qCh+VBmuNILa6wcslwn+Hqb16VmrPWT0axlWmd4jO9xJnWWI8K8jEPiH9U1IEG0AQRWPzSslSR1qqueDBaSqsaqtNm1vBe0Yt42dgoO3UVvwqOxy30knYDWOdgoYaE9dq9Loqp8omfqHkwghA5RqD6U4RRsIuf4y5hJGe6PQU2W8TPBvDvXdOPnlDGfE02Qxs0qUoGnaG8TuJ/rh2hiyVH+ANs4/Xxr4qh4nVVbNr+J6VSkAd/tLQ21xOkjxxudC6j3TyHM58q1r4gGYLexPxiCkSCRKxxyMQOVenT6jDWZyyib3CuFWdwjfTOJG2ITI+pLZOfd259DVaj10tkW/wBbRUekTZjaWXgNzJloAZUJwjKQNW/UZ29DVBWUeo2PaSzE+naRB7P8SuY5JLW0mkWMZdlXIFdVxFKlbOwF9pyBqmqi8ZX2Yv8AsI5JYHiV2I1SqQoHjnnUfbKeYi9/lvKZGABiYsCJNBAOOZG4rYhuJjaraOx8N1rgFAPSmzW4mVsTYyr8PWFcyS930rrwjEFzYCCk4fHIgbYg8iTgGpOKbeqaEqVBoBM6XhoDHCBVzjY5rKcLSqbCahWYbmDi4bIzbxYXxNdSwWuo0nNiABvGRw1VGGya3rhadrGQOJJ2hIrRYx3F+JqqUkTRREasW3hli8RVBJl5YwqWB3zXW1vAHNrSrJgU0IMA2Bz60dBKC8DLpUZY6R40HKqNTaVS52ictyighDluhxXn4jHU0Fk1MutIneXWyOe/Gwxz1KRivNTDUTre8Yu86ngPD7y8aO3ee4WxduzJikADDrz6fA0talhqF3UDMNdYyNVcBSTlMcvOF8BtluIUuL9buLIVJIVwW88HlV8PUxLFWKrlPxMhWWit1BN5jiM8iMGvVGXieeWtNiHj3GoYFgS+cQhAgQKoGkchyrI3h+FZs+XX6ywx1ULlDaTXX2jt5YEt7ngsTR7auyndCx6k881jbw17lkqkH4gGU/UKdrMg+5mnN7SWfEYILSfhyQ2iOCVjl0lMcu8Rv8qyp4ZUoMXV7se4vf6R28SSqArJp85zHEGhnu5HtYjDCWyiM+SPMnxr16CPTQBzczza1ZXY5RYRM3NtC4SRu/yI507vl3MCUWqbRmeaxRci4RgDjODU0rAi8DYSsraaytu9vcDC/Wjnp61xZG2MvTWtTPmEi9iSMqI7ZnbyHKlDhdppCF9zE545o0DJauw86qK+mkmMML6tKRAzDvRlCOeo86pTqlhtEq0TT21g2hJfSGb5VbNEuQLkSTEVBOCTRzRc94FiwXJXB60bygAJiVxdog3JB9M1KpiadPczQlFjAC4aTPZQM3gxqa4s1P8ASQmV6QX1GDaCR1fWO9ju79a5qDuCW34jh1BFtoKCzIOubn92s+F8PIOetGesNlnVR3dnd27W+u6toyBqTtQVffljG/lk18/0atNgwsT8tRNWdHXLqPrOh4BwJktnktbqC3kfP/UBxlVI5EhthWHF4yrUdVa5A4+P2mujhQqGxt8YrfcIsIYO0l4pcXV7Ic5iXtFbzJJyK9nAY7FOcrIAo+YmHEYOiBcMSZmQ20zhjhdK8yTyr2DVUaXnlth2OwhktJSdtWwzhUJOPGgcQtt5E4Vu0ZSzYBTqGWBOCrAj5jHyqQxilitoGwL5b3ErLaSKQD9rltsastYHUTOaTJuIS44e0dnFMiu2vnkgD0H71NMQTUKtaw+8o9MBQwvrMVuFXbXBmWBXxvhjt8ajibudJvw9RQALxa4J7Zi1rFHg7hAdNeT1Om2VjtPTVMwvaO8PMytqt1foWVRgUhxjk3AmlcOpGs6jhXDry6VpbkuoOCu9aqeKa12methaQ2GscPDG21BznlnNW9o7TMaGkBJwpmXWIhnkDVFxFuZGpQNtDM+6sJEOCig+e2a0pXBG8h0hfzReW0BGwwR4Zqi15NsOpOhiM9sQp1acnxPOqisJy4c30mNKbaMkEKxBpPasONyJc0at4o90gYItu+X6asb1mqeKIRlQSq4dhqxjj22JGdUMY27hctg9dzvWzDZwLu17ydRr6ARaVgQREQX8jyqpxOZjTp6kTlQgXaPxWK+DHPh0rws6zaKc0ra2RAMgnyO9d1DLKo5m7w6R1l7jvGzDGpQAf6VnqBCtrTQua+kK/DlkkLl9THfJ55qqYmwkXo67zf4TcJBbsk9uk8oXSrMeSjpmvMxWHFZwb2EvScoLCNwy2jaRNZxhc5AK6yDUPZ3S+SofvaPcH1KIvccHs7q6aX6Uilj7iQ6APQVdcfXpJlFO/wBZnfBUapvm/ETfgoCSESqGUZCEc/TFaKXifUtdCJlqeGov7pFtY7d5NulaXxAO0muFttNSCxgdNLKpHoKytX10leg4i97DY2CBpAAc7KBkmh7TbeVTCljpeVF9w61hNyMOYzvHg4JO/XnWdsWrXmxcNWHM5y69rJrm/DlXggQ7RIenXfxrz3xjo9xtPQpYFCtuZ1FleWl7YLcd5SQTo7TO45D1Na0x6sLzFVwFQNYTk+I8fWRzFHC8Rbb6x+VOvigHpH3nHw1Ro0zL24ks9Sxzxu5GrKOXGfCt36uo0Ya/CZH8LDG4nM33E7qeQdtkjwArJVxzVhvaMmGFLiLpb3VwnaJEWXPex+nKoqzn06yppkzoOF8V45wYE2VpbtIyqAxg1MvgASN65qK+pyfjAAw0AEwuKcb4i7SrcPqnY/WSyHU/p5VU4x2UCmbKOBImjk0I1mG0smdmx8akKzjYxconpa8OmVeSfnVUxolmwrDaMwWM2NlGfWqHFfGDpMI2lncEDYbUjVgeZRBaaC2sjBc8x57mpLXKbSxTNvHoFCoEZDnOd67rFtbwimoFjHo9PRSvj50vWPeA0VO00IZImQJJGunqwUA1F3bdTD07z65iiJLWyjONtewruuwXzamL7OM3YTEli4i12qv2whzljCAo+B51kqY4gzdTwlLLfS837WzkliMqREKTjJ5/EUyY1XvlMyPSymxOsxeJez3EeJXTssn1SsUTSBv8PCsL+JFjpNidGmgHMzfaLg3Y9krXMalUAI3O9E4qmwAUy1EF72WY7w23ZCFyJ3GNLnYIOoA6+tI7nLNaIVbUWmnbWiy2vfMUUUQIBVQGIPTPM15z1yjd5fIL7by3D7Tg8U6SXQ1hD3y4DA+FcK9Vjl2EnVwr5TlmL7TmxvLtVsYDHGo3cqAXPwrYmJIG8mnh72828zeH8OsIpGl4ojyxFSEC7d/pmmOMa4t9YH8PNtBN2PjfCuDWCf8ACeFRmUsS3aTMSCMYPP8AvFNTr1s5s1gfhMtXCOF80xfaD2vvONyAy28EWAAAiDIIOQdWM1pW6qVDaHiZkpgHUfechcIGdmkKlmOSSeZq4qkC1ohpKTqREpUX7oI8QKda3eRfDnieoW/F7UH6wsuPvCvNaoT6TPcGH7iaNtxKwcd2ZFPntmotiaqmUGEQ8RxZbd/cZd+uaT9Rdd4DgR2jETrt2csTEdNYo/qttGkjggNhCi6KjS6KT8/zrj4mBqDO9iB3lhO747CGNz4GTH8qyt4q/McYWmu5P2jmqQTRpFGgDcwZc/yqL+KsV7SYpoFJP9I27SxR5jVGXHU9aYeJtxJKiMbGISG/u8xakROZ5gmstXxMsLGalWhS81rmalgpjiETSS937rE1GliNfKbTHWIY5gBM+84bcSGRon2HJnO+KYVSBcmaqOIprYMJhXHCZc5knTPnk0yY0cCekmJp8LFG4RGmCZTj72NqsMWzSnWVv2z6YNHhUmLKNtxRFRjHRVYaiBOg+8ufhRDGBqdvTFpLeNzsSvrVOqRsIvTbmCktFEZGS2POiHJgFxzM24i0HBUYP5VdWvFzG0QuLVuYiIU9d60I/wAZlcKx1ESlgVMl0+dWFRjtM7YSluYvJ9Gce5iqB3mVsPT4M7KK3iG6xofPNeO1Qz6cUhDLFBy7MD8VRNQx+nG4IlHukD41FqhMRtOI9ErKNnGKizEzO1jxGIpEU5YrjwxmosSZJ0JEcgurdVwSg9FFTK9wZnek5jC3EbbrLuDkYApCPhJ9IjiHW5c404b/AHDNIW7yRpLGY7uYYPZrkcsDFAMF1kWop3hVuXk/xAwPiFpuoTqJM0gNoKdEk2WRlPiy1Isb3MopK7iK/QJukkZU8+lHqjtLe0LyIT6DkDVCrFeuquDNuDE9o13hHtYzkvAp8T2e9KGqDmKtVuG/MTdIYSTHbR5PTTvVw7nQtNAZ3Fi0y7uOGRiWgRfSOtlMqBYt+ZspllG9/rEpYItPdUEeKrjFWv2MurkRC7SJFBIQ/Deq0gW5jNXyjWZczoWyi6t+Qzity0WtvMb45DuLwSWP0yYL2GAeZZtqchkG8l7TTc2tDGHhllGYzYrNOf8AUbkvpUyK7m+awndWnwJlx8Rfw+Rqhoie2MRfcR2C/wA82IPnUWo2leqrcRpbzwY1E0oQFMPHe77k1NqUBpAx2C6zywfjUWp2kGpWjInX7ZK/CpFDxIlDxDxhH5SL8qQ3HEkxI4jCxuCCrZ9DUiRyJIkciO27TLyzmoMFMz1Apja3FyDgoSD6Ull7yBp0+8uZ2xkhh+GkyiLkEweO+1MPCZBCIWmmI3VTgD15716OE8OeuM17CediselBsgFzOFvfaXi3FeJCWK6e3UYVIkkICgnf1r6GjgKFKlkK3nlPiKlV817fKaXDPbK+jZbe5CXCatImfuEjPvZ5GslfwqkRmXT4TRR8Qq0SFbzD46TrjfTqe7Jnw3xtXi9JTvPrFpU2EDLxieId7SaZcMrSq4NG2iz8dkcaQqn8NVGEA1vLDAKOYM30UqkTwjfqowaYU2XYw+zsD5TAAWykmB5k28AasHqjed0PeUSJEQr/AIx3+9Ep/lTCs8T2VDusTlhiY96Un8AFUFVu0YYJDxOXQRjYqtekbzQDS7iGVoh9n/xNIQZVWpxqGZAPdYfCpMpmgOkchcMO7UGFp1wdjG4mYYyo/WpNJNY8xyKVl5K3oKiVBmdlBj8EoONUT/KoOh4MzOh4M0oBCQCVZaytmmNywj8EcZ3Vm+YqDEzM7NzG44YyObZ8xUSxmdnaC4vNHw3hN5fEahbwtJp8cDOKphkNestPubTPVrsilu08LvuIy31xLPOSXlcucbAE193TorTUKuwngkFmLHnWA7dH5qkeg6gQN6rrFIttIaWWUfS5HYyAgZO/KjoPIIWJJtOk4Bxq7uUaGa4Zwi7FjuBXl4vC018wE+r/APz9dqmak5uBtNbX2hyZBg1itl4n1VrDaFUov2lpDcxDeVe6gTZjjzoimxki1t4pPequ4wR4g1ZKRM41lG0WfiD47pGPWqiiOYhrE7QD8RYDLMPgacUBxJGvbec7HNIP9YV6LKO0woze9GEnlH/cUhRe0stwfVGY7uUc5wakaQ4E1ob7mNR3vi4/KpGl8JrQoNIxHfKOTCpmkZdRTMZjvifdyR45NTNCcVp941DxB22QFseBzUmod5N6KAXY6R6HiEyAMySAeJbAqBoKdp59Z8InqqKPqI9Dx2OPBmZAPEuKg2DZvTPJrY7w9f8AzLHB7acFtxm4uYxjoATUf0nEt6VnlVfEsH+17/IGZ/Ff/wBJ9m5bOW1aC4uYpUKOgjwGU7EbmtOH8DxiVA4IBEyNj6R0sTPPr7jfs07P9G4LdRg+M5/LevoaeFxg9dQH6f2iLVwdtUP/ANTKn4nw6SeIx2dwkQJ7Re1yWHTHxrYlGoFILa/KKz4UspCG3Pm3/GkZjv8AgkhUm2miwMd4ax8d6iaWIH7gZ6VLH+GUyM2HJ43v/WaVtcW5RhZXFoGbp7n5YrO6N+8GehR8fwFFSqJk+lh+JVIeLxnVGQynoJFbPwzQLUG0Mel4sjm61V1+P8yJ7nikLEy27IPFtqK0qJGhm8Y2uT5QCPmP+DF5eI3rADswvmSaoKFMcyb42u2iqIJ72cqAQQf4TRFJYrYh7em3y/6g2uZce5IfjTCmJE1nt6TF3uZs+4fiaqKazK+Iqe7OktOHNJGDb3OQeXacNx/OsL1wp8w/3T40YltixjUfs7cyHv3yKCeQg0VE45Bsv5nCpUOzH8x3/lBZE34s8Y/iiRv2rOfEyD/p3+plVL8ufuf5kN7JxqfrONs+OvYqP/qj+pMdqX5/tAzHmofuf5lH4FaxIQOI3T+Oi3yf50wxtRv2D7yTV8uzMfqZRbaKHaDh00zfflQkn4YxRNVm3cD5f9zMcRUvon9TA3C8ZcYt7YRDpmPOPnTIcOPU1/rO61VvUDM6fhPtDOS0tw6eYTFaVxOFXRRG6ijdDFX9leIyby3ZPqD+9UGPpDZYRigNk/pBH2TmG7XW3kn9ab9QXhYpx9v2fkSG9l5FxpkdvUUfbgdxAPEL8SB7Ny9N/jXHGrAccJH/AABwcE/lXe2CD24ST7NStzyK4Y4CEY8CfL7KSs3dmKn+Jf61x8QUbiOPEP8A1/MZi9meKQ/5e6b8IP71M46i3qWE4lW3Salnb8etiFuIu3Qbbx9KzVKmGfVTb6xeqw1QERv6FDcsDNbz2T53aKLUD6ripiuybEN8zDTxDA+ZSPleGHsxDKcx8ZkQ+DQjb5kVM+Iuuhp/n+01q99qh+5/mVm9lGhj+r4q0jdGMagfIZzRTxIMdadoXepw5+5/mZ9xwuaCI9tdAoPtJYaj8ya1LiVY+Uf7pP2h1/cb/WdoqwEb3Kj4V4Rz9oQq+9LrFGNxdbelC7e7CFUfulgkYyfpDfAGhdvdgsL+qWPZgf5g/Gl83aHT3oMtFv8AXqfIE0wDHiIWXvAuI3zr1qPxiqDMNv8AiTNjzFJba3fOHLY6MzD+VVV3HEg9NDz+YnJa24PRfjn9auKjzK1JBrBEW8Y7qxu38RGPypvMd5I5BsIrLIeSCIeQqgXvFI+ECz3B+3j0cCnyr2ggysrbFx/7KbSNcGCKd7dlP4qcGMNtoVRKnuOMeT0hyniLpGIpHz3+zP8AvbNIVEW0cRLeXGdCHwXkfmKgSwlAEaPW1rbqNWrR6Md/kKk9R+01UqSDWaEZiQY1nH3m1ftWZsxm1SBzDqYiCfpG38OamQw4lBb3pUxxHP8A1LD/AHZo3b3YbD3pRo4FXe5U+ophm92cVX3pyf0osMlxsQdQRf2r1+mBxPIFRidTJN2qZLTuT9ltA2/veu6d+IczdzLfSpVVtTHK4IyuMjl+1d01JEBdjzIN8wOppH5nbUMn+964UR2nZmPMqLxy2olt/HrjnuKY0ha0BYiSbzBGdWScHRnb+96HSnX5km7LAqHlUgaiC4Axj0odIdoMxMCb0amUyyAjcqTnam6XwgymVeZGXJkbcbsM7betEKYoTXaULQnkzZxtuf7601mnZTIPZfex+KhZoQDKm3R9WWOkc+9RDEQgkRY2yBuZ8u9Vc5lM5jKwxx/bIXpludSzEyZN5cGIDdmB9TihZotjLrcIi9x235Hf96GQniEKbwsd73Qwkl0nqH50ppW4jXK6GW+mHDFNWRnnmu6XecSZAvWxjXIpXpkDbr0rukO0bMwljdtpUu7KuMnug5/vah0hwJwdu8g3JXJEzMRtui7flRyX3E4uw2MxIrxexVip3yDsDnPL9a2NT81pRqXmtKG77LTldsHIHnj9/wAqYU80cUs15f6W0kaBic43I67Z+VDpgGDpAG8ZVxq1Ad5lOknfG39akRpI6jSTFKxg7QYG5yMdNjQYAG0DAA5ZL3BiyoAONycc8YrgmaHIH1EUgnD65WUnQuD51VltZRKulrKOYw7rJDM6jTgBRt8amBYgSY0ZRA3Fx2e65JY5GfIZ/kadUzR0TNIWdlQk9AcAfl+lEqLwsgJtI1srLGMa87nod8V2UG5nZQbmUSZplkXlllJ/EaLKF1/zSFlCkH/NIEzknJG4zT5RKZBtDGV1YptgIT+f9D86nlG8nkXf/P8ANZftWKMc+9viuyi8XILy1vP2ultx3gMfHNB1CwVEy3Em4nVUyAcxlQcfEVyrc/Oci3bXmMRztIoIwCDtt8/1qZQLEZQuhlO03II91jgjnyogThtFZbwogUZOdvyqopa3llpXMs10BHJ3eW/rnah09RB0tRP/2Q==</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAHsA4gMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAEBQIDBgEAB//EAEAQAAIBAwIDBQQHBQgCAwAAAAECAwAEERIhBTFBEyJRYXEGMoGRFBUjobHB0UJSYuHwBxYzU3KCkvFEwjRjc//EABoBAAIDAQEAAAAAAAAAAAAAAAIDAAEEBQb/xAAoEQACAQQBAwMEAwAAAAAAAAAAAQIDERIhBBMxQQUiUUJhgaEUMuH/2gAMAwEAAhEDEQA/AM/Dw4STlyhIEhJXONQzyzT69v5LsRxzKscEK6YYkGyDw86ul9nHseBzcRvOIxLP2h0RR94FSep8aQwzPKRywTjOc136WL2jkVLt2DoriO2mjlwsgVgSjDIbyIo7iN3aJdfSbJdFrKAVUdDjcfOk0yIGIUjngHHP4VFlMURZTuOtabe7IW1cOu+IOzYKEHng0HcTSSLt3TSkzsJTrYn/AHUTHKMZyAOmTV53LxsVyvMdiTQr9tnukj0oiWeHO82fICqhOjN3c486FhrQPLBIw7zffXhY6QG5k8hRZkBwKJgQSjCHH8XRaHBMvJoXGxLnG5PWpQ2UYXc6Ygd28TRlzLFCnZxd5Rzz+0fOl8s80kgdgNuQ6D0FRxivBMmxijW1tFrXAA6nmaUcQ4mZshWbTXmjkmbLDVXlsGPONselBJyasgo4ruKSxY9a6I3I2pynD/8A6yPUVM8PbwFK6LD6iEn0cD3yfhU+6nuqP929M5bVkGwoCWFx0OapwsXlc8lyV2OKm1+y+7vQphlzshPwrptZiPdxVe4vQQL2WTO+9UtPLq3Oc12O3dFLMCV8QKmkO/LnV2kyrogupqlobwxRKROg9wY9KnuBuKLAHIG7FiOdQe3bw++i8HzNRcoOerNRxImK5oiOYoRxim8rIdqCljDHas1RDoMBr1X9jXaTYZc+iSXq3MqwyTySzPJp0se6Mt0r63wX2Q4LBaqs1olxOY8SStnfI6b7fCvgdk90vEneBBtIw1Ptjc1v5PaOWfgttYw8UnjvgctMAMKRucHI+VOmp1ILF2MqcYPaPoH9zuBwpdaLUu0kZTTnUUH8OeR8/Kstc/2dfSlhTh3EXVW3ma4jHcB3GAMb9OdC2vtkeFx2nD7a6knZXBubqUBu0Zv2T4VqLr2l7BZI7hEifQcZlAYnx6jHxpcVyIvTLnOm/B8q9pfZi44PxSS0jla5RQCJBHjO3L/ql0XB72TmhVf3nOBW9upxxAtcveNbRR4RkWPWzHywN+mTWfubqF+JJDa3NyLUHBmuMHJGTnAztyrpU0rWl3MzqNigcEK/4s8YHiDmpixtoMlpS69NO1HcUkIvLhoW+l2xi0xuVEeGPIgDqKSMk7Dc49aase6RV38hANqp9zV/qbFdfisQGIrWHT4EsR+NLpYpuWo+lVizkO+4qXl4QWvIwbjJO30a1A8NNcXjhj5W9njr9nmhouDXExxFE7k+Ao2L2P4jLuYguf3jigeZd4FsftR2a923tc//AJCoN7WXBPuQAeUYq7+57xrme4hTyLZNVNwK0i3a4B9BRKNR9isqZ4e1AP8AiWcL+ejH4VavHLGfaWwdT4o1C/QIuUIZz4Bc15OHPI2AhB/dB/SiUZlOUBjH9U3J3nkh/wBa5H3GmNtwjhUo2uoHPTvClCcDuCN7VvV9h99SHCNKkyzxReABB/OixYDkvA6n4FDjuIuOmBSm44KqMR38/wAIqpFS3GEv3DfwuT9wFXx316PdnmkXpmLNFgVk/kX3Fq6KYgjtHnOSNNDJZ5blj1NPhe3Z2aIEeagVfG2sZYRKf4t/wquki+o0Io4MjTJjA61KaxcL3U1A75FOpJIhs+GH8K1WJo19xmH+01TpkVQy8lpMGJC4FVvFJjBG9aS4vYcnUmfMAg0tubm3ckaXU+dKlTGRqCKW1l6rQcsEicxinulZc4YkedBXUcY2bGTy2rJUpj4TFG9cors4fL5V6s+DHZGms+GtcTTC4kuAe0bCRxZHM8zmndp7OxrGGupooh01fpXG4devcu1kLuaBnbs5BGV1DPqad+zfB5jci6v4XS3gwzCRd3PQAczvinRqRjG5jneTApeA2lth5jchXwfs4WCtVXbcMh2iS4GBgnOARWh4n7cWNnxSF2LpEshtQIlBTO2tjkcgdsL4Z6UFP9W3luJfok9tPKS+rJYEZ2O/iMVdLk3e0VOnZXKFMF6YY0gaU7Ig17j4UXc8EktkZhDEwUZ0g4x8CKDtbJWJMSO+nclVzTezsZZ1JBZEO2pjgE1qdVLszPYz7mSdlRbVRjbJbH5VJrRE7rGFWHPOTj4U2uLJk91hv56aXvbqM7Rg/OnKtF+QbSKF+r4DmU9o3hHFjPxNXJfRZxZ8KEjdC4yfkBUFi73vxj0xTCAwIn2t4y/7gMUMqkO5aUmdgTj9wCVjtbWP+JcfrV6W4jz9bcVQjH+HCCfw/ShGu+Dp7/EHY5/zs1U/GuBwlEdTI2QcnLVnlyaa+oaqNT4DynBScRwzzHxPdH34qcVhBI2YeHQoP3pWzVUXFOHHDR28JXGcjFXTcVidMrpA+f3UXUv2f7AcGgxOH2wXE0tsn8KIPzrxsuHYw97K3kr6R91KRfw5y0inyCiiU4pbKM4HwUVHf5Bu/gufhPCW3+jNJ5sS351A2djEcR2CevZionjaY7rNj4CqJuNRqpZmcKOZ1irTa7slm+wQyYwI4o0+Q/KlvEOJW9nL2E06NNjUY1UsVHieWP686yvH/bvUOx4XMYs5DTO2/wDtGPvpPbTcPSH7bidu8svflcy5bPnnw9awcn1Hp6pbZ0ON6e57qOxsJeNwlC6XYVRzLQnag5uOwhC31rbgDnqUr9xFZqa5sWjAXiEGcbntOdJuIyxsUSO6ifJ2IfYetIp+rV/KRpl6bR8Nm+gvLi5hWWO6haNlDAjUNj8K6ZZv2rmH5tQBl4daRRLDxSwYrGB3LhMjYDxpxw6+4Q8DGb6PPMg/YlByPHTn+VbeN6vCp7aiszJyPT509wd0AOFbZ5oN/wCJqh9BEkeuMalzpyrEgnwrQQ3XAZIVtpbZIwW1Ej48zzomXitjw6GKO3RZIV7ocfs/rWipyfhGaMPuKYPZgJNGb9sRPGSUWTvA8hn8aH4xY8KseEJaRgyuzazK69eu+OXlVfG+OzNcFJcoAeXIUkvpTLGJQp7Nm947gms0nKW2aIqwD9Dg/wAw/D/qvVDsvNPnXqmhhoIuO8W7aVIjOR2rNgnbnRb3PFr4oJA+VxjVMF/Oqbe3jinkdmx3zuRnrWgsexyrhyB6YzXPyEVK9npCAezt4zKEt7FSDlcNnHyBptb8P43bwhFngULgABmO3huKeB0d9Sl9h1yKqnSdwFUx6R+0xb8KimZ5cqbFyW/GtWBdRhT0CkgVf9D4w7h2vlDBNKnScAfhVsMMucSOgHQJmj44oUySzZPV3ApqmIlyZoTx8Ov44zE1+dGc4rh4TMffuzj0FOgIix0ujHwyOVcZ4lJw6behpimhP8uoxQnBQ3/lt57isx7b8F4kksH1ddOYtGWBfbVnyFfQgc57yYXnjG9V3wiEOueVI0Re+zHYD5UurJSja4yhyq0ZppXPicnDuM62JeTVvv2n61xOG37AtI1wRv8A4b6t84HX1r6DxfiEMGVEbIxOERkw7g+P7vpz9KWkm2jTAQTOei7ID4frXKnVSdkeqoU6043qaEf1KILQzXd7exEgKqsQcsRyIBzz6UPPaFGUQniLB9lZ5NAbA35nOxz0oj2ruJrbiNrKoKgRfZjoOWao4DYzcVn7Scs8cRzpbJG/jTabcle4vkSjSbuTLSzy26hp+1jTSBC7OcDbc+v40ZFwee7LsIeLuUaNZdhlTjLgZffGVx4+Va7h9v8AR7s9k0MYEOMfR/A55Zoywnlia7dbqNgZSwxbk/sqDjveVN0+7OVPny+hIxUfs7MeFwX7xcVVJSgXRp5scLsXzjJX5mqeK+zssUy2sf0wu/fBnkUx6QwG+M75YfOtxE854RZQGcAJ2GAYMHCspHX+GhuNSXbTKYppi8cbDSYhtllPn+7Uko27kp86rnu3n/D5ddcLuuxaUxqEjG5LjfZTt/yFDTcLuoYy7iPZyhUSAnIXUdvDFaq84MbvVqnuDlsEYAA2A5c+lL29mQxwsrM+M4NJySOiuTGW2xG9hNHLIjGP7N9JIcEE7jY/Cp4kiKmdQ4bUAMjf+tqbP7OGNgGGf4cmoScH0NIdDqWU5686maDVWD8imNJ3kRkVGZiFXURz/rxo7hacQtrhZbazSRslBnHM/HnUV4ZCpHaGfB8EoiLhdiWBE1yMD90DFWppbJKUWhit5xeUKRw3JL9n3TzfGcc/DemnD45LhZ/rOK8gcEBVVc42GR99LrPg9odOm/kGDnBlxvin1hwWIROVuJWy2/2xINPjXm/LOdyJRUWoq34Abu1tSOzN3eBRyDw5xS+WHs4TDFxKQRc9DwnGa0j8MC7ZJ9XNRFhaxDUyZb1zRuuxEJyMh2OP/Lj/AODV6tWYrXPuV6h6zH5yL1eJLh+7vrPXzo9L5UBKhQ2djjNZqMMJWQu0hDHvE46mmECalOp8KKKxz6rsx59aL2a6yjMOQQED5b1BuLXLqNAVATscUsaW3g3LgEjIwc7etVSXyyKOzn3ORhV3ocooXGlUn2QwNxcHvPchdQyQCBUDxGJcsJA7jfu+VJpIo3BLS95/LHLzNTjjCjAkGBgZ5YB60Lq/A+PDX1DiTjIXKANlx5jB++rU4ixIKO247wU7Dz5Gl8NukilmZZN8By/ujHPGMfdRHYQJA8jiFYohqMkgyNuppbqMvpU46SGT8TW3tJpJZCo0HLZ937s1nvZ03/1RBPxaV5YLZi0AaYZd8k6mDZJIzgeldtrdfaGXtJZSLGJ8pEukEgftP3hjPQGg+NEKfo8Mg7JT3e8oHyDYrNVq5PFHf4HB6EM5Lb/QVYRz8Svnu5IlbTzyyD8qnfqRxBA0KBVI21rg+uKjw+3aKzGLmNSdzmRR/wC1L71G7UntYzg7HtP51nts6ekiXtdbxzpEQYQ4B0iNgSTtgbEjyob2KuTHxAQYGJeQbx6VffxEwxTPcIxTHuHIXwJpZM6Wt7DxK3UpbzHICHGhx7wHx3wfGtfHkksTnepUepTbR9ShRZgr61MoU+8cEjxqEY0FQzKjs3eGdvl8a5YGK4tFlXT9oAwGNxTHVnspJE7TC6S6Z/CtDkjwcpyg2gOKFlVWLDY4AC+frvUryONsdoe7ju6xt924+FESx9oGXVqU/sauR+6qWRRmKPMelfcPeUg88g/lVOasCpOTuJry2gwQXxtkgkNg/jS90tYk1I6u45Fwfu229M04vlUAh4T4akyVI8cdKXRorHtYdXPcqCpXpjIpLaOhSk7bB4Is4Aj1ELsijIA6nff5V1meIKFiwMlsF2TPzO9XRxsW7PfSf30yDjrtyP31eYGcK3uE4JOrTq25g8j8RmhuhuWxf2SSDLQKGI5mPn6EYoU8NidzlQBk6dxgf1605it9hlFRTt3lxV5EKgglM4OO7tjzNTJDo1ai7Mz31WwUFlVm6fsk/DFFW9qsS5ORlskpR7djHqfSmWOeZO/gKpeVFY6i3PAIOcfCpmaIyqS7lscQ1AGckjpqBqdwFEeGABpM3F7a3lWIK6kk7rGRnfrTCWYSxhjsWGcMMGhc2h8IO5X2S+A+VeqrI6Hbpua9U6hp6ZmJOIzLcShFU99sZPmasF9cvEUDhVY94il5VlvJDkgFzkDO4yaMhE22lY2zzIUbY8SedaHMpUILwXozCMlpNeVz+zkfCuKzlTJIdIz3FUnb15VOztmkDSoC+kByUABXGRjx9fhVnaH6KQITI3TUGATzO+elKcgsURFtJcSKyuD1Oc8vIDamcVn2DBpG7qrnDLgeQHjv50AWeWdVSeJQNgVXQoHx9accOCTzKJpkaJsaFQYGc7Zz8eZoXMTU0iNnCquGuCDCqkF3G46532NCPIntBxZYLRGj4XC2cFwO2YEZJz08utd4vd/XN+OE2bgxIx+kSwjny7i59MevpvrrXg8PBoYY7O2UgL3mupgcctgPzpVSrivuzfweFd9WaAOJQpY8NEZfJ3J0dmq/IEVj1SGW7BZyRnfvL+tOuPSPJI+IrYknmrJypbwq3fttTRQNjffSaCCsrs6U9scG2szCQrFcD99aR3lrCCXUSOu24GR8wv8AWK0BIVSfolvnH8NJLtZZWICwLvyDLVQJNEbVrYRGPsDGCMF+/n15AUoRV7SW0nlD28pyku2UbOx5+e9OOHxzxyjLxgA74Un8Fq3jVpNcxqwctL0z7vpz28KbGVmA45LYX7F8VNk0nD79tMsbEAE5Az0x+dbVTqGD7qL3cb4+NfLZft4Fu4Nr212dcHvJ4j0/rpW44TxSC6hia227QZ0fu+QPjTJSurnkPVuB0qmSWmPpJFnVd0LKOvJ/lQVwwnmKs6oAApQjfP5V6dxPoWJGzjDrgjfyqUem6SO3kjGR3X1AkgdOdBmchU2tgZJEwCxMrrupKhlYfHlQ8rJ2+kQEyuAdUT4+BA50xmtFVdMkiAYKqWbK58DvXHhaBVE8EBcHUOxB3xzz/KqyHwsCabhVLOYpoxjD4wQp5cutQOl4lZicswUOp2I88fpVsEkZgLwO5mHdMWAQy55Y69aouWi7ctN9g5GSFXJTfr+lVcfEuEoMTtGyOB78ZwTp+X86HuHZGWOTWkYOBn3eXQ/lvVE0zHUskOEVciWHm3n4ZrzPpJ7C6B294ghTt1yKo0QQNfSM8KBDqZHDZVhy9D+VSW3lUBpDoZjlSB5dfPb5VS8gd31iPSW7uFzgY33rpYBW7IqQ2Rtlc8+h2POrua4F7KC2dCGQHfKHc+VB3r6hqBGBvn0PlV3fJbGAuMEA4z4n05eVCXL7HJHujmR4UF7m2mLy+CQZVPxr1e1r+8n/ACH6V6juaBVkrdzuG7ysw0455b9aMFw0aEqsYWTYamzjO2P+6pETy3dzrRW7NyBkHLd7+dXWwEcyLIA2GDKH2PkPWnMBhcFo5gKodOFUuqbk5Gf1q6TWsBESxtDp93HeORv6+gqHDZpmutL9poIPcQHCb7YPgKYJYx3sYUOTn3VJwR5nO535H8aQ5bFt2BoYgsgRItIVAWkKghseGf6+Wahd3d1bFrLh0Sm7vG+zjTuPH05525H0GaYXMttwGJyGW4k0hXil5k9c422/WkXs2vELzibXsMRkuZ2xHKTuiZyzAdfCiTunLwN49Lqz32NVwXgRghWyZJBFGdc8zoVEz4HIg7gcvhR3GOJTQRmO2vLVQNsaXBHlTK9ZrZAFklXG7N2ZIY+O5rH8VuZ2kYfWA26MhH4Vli85XZ2pJRVkJbuW6lkJNzEd+lHcLW87PAvYlBPIDP50skLdpg3kXPnqf9KZ2ksoVdF7CvqzfpWh9hC7hdwLzGfpkY8Tkils5ui3euwfQsaYS3MxDI3EIyvTDOR+FLJpXYkPfAj1Y/jVRRcmUIjCTDSO2eeFNMTbI9syssgyO6T3cH4mlEipnJuZH8liomCODYmO7b/UdAo2DsDM11aXiqDCExvrYEHHjjy/CmtjN9W3qjLrYTNsgbIjOeXoTS/jFjHMF7OIg8xpfVj1/wCqHsL4rE1lcACI7ZY4IP4/piivdXQqvQjXg6c/wfVobmGNYkRnKODpcnJz5+fnVjQRNdKRJ9oQdBMm4OPA1keEcUMfD/oc7EyxjbUS2oeIx8KbTcVsLKSAyX1uxVgZI2cEjYZ7vMUhr4PIz4dSM3FLYyaQxK1vfWpkXTs2kHugD9DUJ4Htzm3mEkZJKq7bp0wMeBwfQVBOK8M4lOYIOIwyvIuBHGwbWMZxvy5V2dBJZNDPGzSBAgQ5B6gMM88AVNrTFOm4O0lYEmgik1rcIIpdmEiA5bnvnoNqBvZ7sQrKrIunUQImy39c+fgaMSJm7SCPsZEGD2mcY5YOefljzpVxJezj7O0mlMbr3ll2IGOuPjRx2PhHZy3vGEeuDWpkAfVGeR/CpsxeMFZIpc++CcEbdRVFuxtLVFaBniGVVEHXbAGTkDnvXbuWBwn0eBRL1VubeHwqxyWzyXckhLZLJHnKOeflvUS/arqTsQqggBkO/XO1cnXWEwo7TGrUh6dc1WezlP2wCAn3s4I26iqHx0WdrGkYKhRIVGWXfbHp1oWZ0LN0zt3mzvy51NgkTNHLODpOV1DG3Ll/XOh3mDkhJnbIGNCjPP12qkjZTZSXjB9zPnmvVQS2ffA8gRtXaKxoBjf6J54VVsmRlLBQx8/vqy0E/wBLQaw+nSdORnA5AbdNqGsADxOYH/NI+ZNFjcvJuHDsAynBAyPCnSAeh5wu4JaZopXMivnJIOjf8PI0UFFqxdRpKSHQxRRp2ztjavWsKKqoAdP2exJPNST99D8RPYLoi7quBqHPNZn3FRWUrCtI/wC8fHxbSsyWwGuds4OkdM9CTX0XhHBeH2KB7Iq747qnDaB5YPL4Vi/YKJJHnmZcyySSB3zgkDOK2B+wghSMDSwBIYatz60HIbviuyO3xoKFNNHuL3boGEsCkAeGP0FYbil0kjEmKRT6n8jWl9omZIZArMo08gcCsFfEjUepqUIIurJko5YHuAgJ1ZxjGa0lvw+YtHpt5MnfdBvWJhdtYIOCDzFO7K4nZ0zPNsRj7Q7VonH7iYTHtzaSQkq6SIfNB+lLriORGyRIARtkEGuXcjspLSOx8WYk/fSqSZ9R36eAoIRDnIvlRs95j8XH61K3ZY2ySo+Z/KgtTNzY/OvBQG/nTMQFIeRTwTjRM7EYOFQYwfU0k4pBBAwuYZMN7piyTtyySMVYjHlnahr7YqQBn0qJWZbkNvZ+dOIaLbW3bxjNuwO7DqDg88Dl4Ur4rIx4i7OuJFOk7+G35UJaTSgXE4kcSQYeJg2NLZ51fxh2kvriRzl2yxPiTzqsfd9mOUYtdS3uGn9nSXNxx+S4t1RhDEdnbHvHA+Oxr6FdXbXsdtbXMalnlOsyZVRgHIU9diD86xH9lkEU0PFO0QN9lj5DI++tROTBAZYyQ/YFdROTjn18+tBV/vY8tzXnXbZ6eN5s/RpmU43Gc698ZyNuQ5Eg7Us1XJupTJEoMJzgHGw6eZ512ydo+FxOmFY3GgkDmunOKJmJmB7TBzICdudUtOxmStoou9AkaaOWEMuEAEme9zyPLFQmhFwiyMkFs4G7hvfODz+dAqBEU0DGQx+OsUUx129wW30ByvltmrasMUbFd7bOpHfZSFAfvDB8MfOhrjUmVdWJBw2f160Ha3M0126SPlWjyRjmc4omT/5BHTUDjpuAfzNGhyVgOSZLc6RrYtnujbTuBj0rks5kLpEuETIRcjr+8Tz32+FU8Qdoj2kZw+Rv8aHu2Ijh399mDee386KxspIkbiMEhpLfI590H/1r1DB2AA1N867RYmg//9k=</t>
-  </si>
-  <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAHsAxQMBEQACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAECBQAGB//EADYQAAICAQIEBQEGBAcBAAAAAAECAAMRBCESMUFRBRMiYXEyI0JikaGxBoHB8RQzUnLR4fCC/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAECBAMF/8QALREBAAIBAwMBBgYDAAAAAAAAAAECEQMEMRIhUUEiYXGBsfAFEzKh4fFCwdH/2gAMAwEAAhEDEQA/APjAbEgYqvVebCAZ9bS1ZQoXB59IC9ICnIJhWlpbjnhJPCekI06W2wOUoZU5ECSMiAn4hZ5els4hnIxAwnXPKAtYkADDEgrIrgMkAczKNLSoqKOplQ/S8BmtwGELEzE5gh44c65vic2hGImH3Px+8am5i/mGfOh8Meq4H0Wtjs3/ADA66sqcEf8AB+IQBlgCIxDWU1jLZgkWEJZPWVFlMkiwgGRt4U1S2CIRq6ezKiUO1vAMDAz/ABg/ZIv+o/tAxSSnLf2gVPC42/KACxMQAMCJJE1EZzAcqslDVVkBmt94APGCG1QccmrQ/wA+EA/qDPOsYmXZu9SdTomfEfTDPmnIozHMoJVqGReBvWnYnl8QCZVxlTtCIFLv9IgaOk8H41DW28IPRBv+Zgy0a/DdIgx5Ib3fcyjCfS16jDDCOevQ/Mk5bp0zOLFNTor9N9aHh6MOUzFs9nvq7TU046ojNQAZpyiKYUxU0gf01nSVGjS8obrbMDO8WbNqL2XP5/2gZti5EBZ1IOQcEQKixTtZse8BW58theUCqNiAdHgM12QGa7IFNW3GV9lx+p/5mW7WzWPd/wBmf9lG2lYU5wI6+0B/SaX7Dzn+phlF7e8omrUcLhW+knnA3KbFZQVIIPIjrAYDQPM1Nwtg94Gv4brRUeC6pLqjs1bjIYTF6dUO/ab6+39nms8wY8V/hbT6zTP4h/DtjWBQWu0b/wCZWO6/6hMRaaTizo1ttp7iPzNDtPj0/iXkccJweY5iemcvlWrNZxPIiGEN0vgiBo02cpUO1PtvKEPEG4tY4zsuFH5b/rmAsd4ALFgZ9x4jtygDKHEmRWUWVoB0aAdLPeATi4x7wAuIAhsYB6KfOsA+6N2kGrnaUINXuxxJIijUW6Z81tt2PIwrWo8SoZPtD5bDmDCMmz0vmUGqfcQNbQat67FsqdksU5BBxJMRL009W+nOayL4poKfF83KqVazqwGFs+ccj7/3mOma8Oy2tp7ntqezbz6fN5e6mzT3NVdWUdeYM049TTtp26bQujYxDB2iyA/p2ywGeZmkZr2+ba9m/qYneBbMDP1eo4yUr+nqe8gDSvE3sIUR02kC7riVFJRdW3gEDQD6dssR7QLON4A+Ak8pMtVrNp7GdM/l+joTzlSTimEW1NXAuJBnOMNIqsBrUpgsO00gVTbCA3TYVIIMDX0l2cHMB63R6XxKsV6lMn7rr9S/B/pMzHq96a0xXov3r9PhP3E+rzfi/gup8LcMT5umJ9Nw/YjoZInviUtpez1171+nx+8E6WwZXkcFvBU7fhMqEkMoBqdTxZRD6eRI6yBaRTNacCgdesC53gCsSAsy4MsIqNpRIMBjSt9snuYDjJk4AyTDVazeYiGj4z4eng9NGnexW1lqeZcq7+WDuF+cc540tN5y+tudPT2m3jTj9c8sgGez45/w9/MsVW+7vmA9ql4lzJIyb1w0KDINTW1YsfB6zSM4DhciAas7wHdNbwMOxgbGluxiBsae5bENdihkYYII2MkxmMS3p6ltO3VScSwvGP4XKg6nwkcS82o5kf7e/wATPeHv001/0ezbx6T8PE+7jx4ea1DslXAVIYnBB25SxLntWaziSb2nBVT8y5ZDkUShMtnoOUBiB0DjuIAbElC7LiVFYF6Tw2KexEDX84aYi3ALj6B795i3fs69reNCfzp5jj4+fl9fgStue61rLWLOxySZqIxGHhq6tta83vOZlwleZrTekBs4J3EDUrsF1JJ5jnAz9Uu8gUkVq3N5ihu4mkZt+zZgSjSBmt8SjQ0d+Dg/yga+mv5bwNnRajcbwsRM9mN/F2l0esL210YtpXNr17E/PfH9Zz2ticxw+9p7amrt7V1szesZ7cxHj3+cTxHEvEW6Rt2oYWqOwww+RPZ8m2hnM6c9Ufv84/suFORDnNKoRQo6QJgdA6BxGYAbEhCzDBmhEBlrDYeI9ZIhq1solZXTc4gOKYDGnsKPkQJ1OGHEvIyBA7GRTmlfjRl7SwhfUjnKAVtIDo0Bmp+Uo0tJqMgDPKBu6R/J0j6t+Q9KfiaeN7Znph9fZbeulpTutWO0cR5Iae4iywOci1GRs9cxqUmaYhj8P3nRu+vU4tz83kn9LkcsH8puO8ODVr0akx4lVmy3EwBPfrNMTabcu4swiZB0DoHQOIzAWsX1GVATzlF0PpEC4z2gFqG+f6QGFMAtR9YHfaQEsPAT2POULWKOLaZUXQg8b4G2Nz2lRXUjnKElOHx3kkGUwoqPCNHwumzV6yqin6mOJjV1IpTLr2W2nc60acccz8IbnjOpr85NJpz9jpxwjHVupnnt4zXqn1d34vuIm8aFP01+/v3kQZ0PjcMPxJODWWdm9Q/nMvTUnNs+ShleapMiwlWxzgEX1DK7+0o6QdA6AGz6m+ZUBdZRVZAdDKCvdlPKT6fvHuYFFYg8yJAauxgwOxxyzAYNpsHqUA9xKKhD3kDNTrRpHwM43I7wAXlXTjU5BGQZRnW7MDAKDkAiZVdTA2vDL20FJtXa6wEL7DvPDUp+bbHo+1tteNhtpvEe3fj3R5+/Addh4ic8+c6I4fFmZmcyaVhjIlRneLjiNdn/AMmRc+yzTCKGGnQjskHI2xCCrqM5Fy8f4hsf+/8A28AgQPvUws7gDDD5H94VSAF/rb5kFSMygWMRKJL9BKL1QDumAG7wJUSAyygwG0AdT8YKnqMSKUptKZrf6f2MIpeOsomk5THaQHpUNYA2QObfEzOfR7aNa2t7XEcnmfjOfbAHYdpYiIjCa2rbVv12/qPHyWBleQq2YHDKI1C+dp3TrzEDFMiqmCU9IEGEVMCMkHIOD0MoMNUSfthx/i+9/wByYFWAYlkbiH6/lCqyCOAs2F5mWEDKMjYdSD7yg1IgOcHFSw68xAEgkBllBl5QBadDkGRSWpTg1Vqjo5x8Z2gQwJX4iEUpOH9jAco+kt3kw11dsDgysiBtoHBsmAxXZy7yjK1lXlal0H054l+DuJFAPOESeUCpgRKIMCsCpJB22gW8w9d4BtOeK6sLzziQbD1qV4SoI7GUKNplVspt7QC0rjnAXZSljL7yC3EEGT+UBa12sbLE7csGBq6WqAl4nVwa1vdVP6Y/pAFWmecql9TSamz91uRhDNb8SgjrIooMInigXBgEVpQDxIcXlWjtwH+W4/c/lIEesDoEGBWUQYFYFTzgE09FmpuSmlS1ljBVUdTJM4apS17RWvMn9Jp/KuYHBKnBIORn2kznut69E9PhouJpgF4AOJlbKkg9xAG9vE/Ew3x0kAmbiOcwKEQPRaWuUJ+N1Y1VTd6/2MBatIB2oW6so42P6QM4VvRY9L8xuD3EgvxQqVaEXBgEBgV1Q4tO34fUP/fEoQHKQdAqTAiUQYFTArjJgO1p/h14TnzWG/4R2+Znn4Omc6EdP+U8+7+Z/hoaOvhQd+srmM3LjHuJQu4gAfrABYJAI56RArxkdjCvWacDEqFfGwM0H/cP2gJJAargB8VRfJR8eoNgH2kGVCriAQQiwgWfetgexgZwgdAiUVgQYFTzgM+Gqp1WSAeFGYZ7gbTF+HZsaxOrmfSJn5xEzC9RLOpY5JO5PWackzMzmWxTziEG1P8Alp8yhNoC79YFtFj/ABS5VW2OzKCP1mL8NVMu485F8qjHE23kp7+086x25/dqbz9xDN154rkOFHoH0qF6ntNxwkzl/9k=</t>
   </si>
   <si>
@@ -50,13 +47,13 @@
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAHoA2QMBIgACEQEDEQH/xAAcAAADAQEBAQEBAAAAAAAAAAABAgMEAAUHBgj/xAA4EAACAgEDAgUCBAQEBwEAAAABAgARAxIhMUFRBAUTImEycQaBkbFSocHRM0Ji4QcUQ4KS8PEj/8QAFAEBAAAAAAAAAAAAAAAAAAAAAP/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/APjRfUaG8J4G19yImgVe4Ecu1AAAKOK5EC65MYKlUOvsJsxOMlXtvub4nm4smni/zmrENrIsQNQrWSL278GROX08jqx1N0I6SeQVqVGJHaZHBVhXI5geniygn3Ue39pVciKTjc876RuZ540hQy83zqqXwkjKSwDNxZ3qBfNqYhqpAOL3/wBp5m/qMVOjrPRzDKFvUPmhMq5bxDWvuIgbMWVvSUpuKoE7XHCuynGSb5EngJ9FRQIA6H+UOIas7IrdOCTArmVsmMKAC1cEiT8O+nIcBBob7TZoPpBTk+ripBcKDIMd1vYswNWMUx1q5FdqHxLHEQzBd+dJJmbxGvJgXS3uVunaWxZiG0u93vZ6QMvidIw0B03YbbRgoBCKGAquYfFMzI6q31dT0Ei3iQTRcbcfMA484DviKNQ9vP3lHNKCtXxMzZAGJ5vtJ+sxHt4MBsjg5WAJBA5+ZnYkWOvxEclmNcj6vmIBq5IIHfpAcM2m17jpHolaFEHcxNiyELYUWDOHJI2JgDKgDcAxDVWG93G/aNdjfpEABF3W9DfpANUaDEj7w2Ii2CVFV3hr5gMcYN7nV8SQVk9xW/gmaMJWircg9ZzZgDXI+YEVFtZBF/pKMWVAKsA9I3qL3FdhHUKFGoiz1gQyAksw1cc1UzMSEC3z3lfFOA50HYn+kytt3r5gWDMaWyKlcaZCxYuQbuiauZFeypJ3B5mgsQx1G+xgejmZ/wDl7BUiq2PEyqmRsXtUcc1H8TtitQoDjcdY3hjqx49ZPBIHeBo8JiytjRTQ6/P6yiYWxu+9i73jWP8AltjvVDpHwqhddRBY/NwGTxLsjagmxFHuIl3kPpLZPUiq+8sqELkBewTxWw+JPJoNKSLuwOb/APe0AL7RbMoPcioSCSrsrqpGx4lVxD1kRdRNHWB06SwxJlawzhQPpqB5vqglk1b3V10kMzK4I22a/mbc+BUykgbEbjeiJnb02QMwICmm+IGBmC7qSR8RcbsRYBv7TQ4XSTpq+kngsLW9A1YgcxZSuldRPT+87SX+vav4RtB7S4UvvzRMIUN0HaAr+qoB2MIsKSe3HacyFeLr4h9PYm+kBdgKJ/3i0OkYg2DtFZaUnrAT6T7eIdR7RWO/Fw7fwmBXNbAi+Zn0udgTXUd5oYWdific1L15G0CK41JIvpL+HVHSyQWvqJmXUGNkR8bkChxUCmTAHN6utSL+G66j9pVXG92fkRuQC2wr9YGZMBbk1UtgwF8mzkMTR+8KWFsMoHzHxLkbEKCsGO9HmAcmPK4KMw0g0DIg51XR6iEDbccS2XWCj1oTsYiv7huOehgUGXxWi7xaQ3S5TFnzswA0WBsamc5KpT33mpEIZHRRpvaj0gb/AApfMKJBYVaqOf3mkAYsgA1PkI1aOgEyYw+TMQuQ4sdUNqJ/tNDMcY00TfBH9+TAqGIy5XDrq40Dp8AxXNJTNTADg/2k8eTTSKqAKtBQak20sWqyrAEiB2bOfRJ0sx7zPkyJpXXqZa5rvLO2lfaPqG47TJlKsm4N87wMb5NKmiTvXHEorFRY267SGZTpJUnfpc7DmUC2BHcE7wNLoCV9ur294qUopwQwFfeURg+MsKrnmcaZCGEBQxq+n7zgNt7iWQovej23jnJ7L0m/vAUaaBJ56SOQB2NbbEUes0D2xWCk2RvAyqCFUfENHuY7ARfzgVyLasBzIN7el/Euz7GZ3clrgKwq/pMluBuBzHY39VfnA1EAKL+YBUgA0Ok1+kmhTZ1HmZF1AVLeuvOr3fbiBXEqs5UWO0pjwquUBb1DvMuPOoyWWMrjyqrlhk1X8cQGz4iG92MaOlHpMowhn9p6WJqbMNizWBvvvtMiOutN9uDQgacShUZLB3ANzZiwrixhmINSGMLuR9PIPzNGQkgjsLgAZsih3xjRjAJYgb959a8t/wCH/kyfhzB4rzfD4jP4zJiVn1eIdQhIsgBSOPm58w8g8Hl8d5t4LwPh8aZM2bKAq5WKq1e4gkA7UD0n2X8Uj8QeA8uOXP47yrJhUb4E8PkQgdtes7/9sD5j4nyr1vH58HlQfKuJgArt7uOAevI5k/MvIfMPLfDDxfj/AA3o2wVQzgsb+B/We/8AhDxXhfD5PX8yzL4V8zHIPX9oIO+x4PPSS/4i+cp43xmDB4VWfEMfqB2QgHegRY34PxA/IqNTasYNAVsNomZD6erHZ0jcTQDWPUWrerG8xt4goGVFst1HMDGNn1Ch+U5lXIKNE9zGZCvMS7YD+kDEodPEaBYN9O02OGS2Qkj/AFbyeRaz42VSehjZSGXcwGxPqG9AnmOzf/nwb3/SSuhRNiRZmTUB9G/HSBp1+1ftAzUJHXYAH6x9Vj4gcTdxLPacHBJFXXAuNrP8P84AfD/qr4iUNWkqb+JdzJg+8moCFfg1GYNtVD4qc4sAgkb8woTr+q9oCk5ANJIr7RaNbqJqFdRAFJJA4gZVQatxp+ZoGNBupJB53nFDqskwZH0AG7uB2UjQ23T9JDw9UDsfgwvkUow3/SJhyKBvdCB6ePT6dUB2+J2Qkaq422kFYlFPQ8A8mVFsbJgfo/wB5z5Z5F54fM/NV8RlGLCVwY8GMMzMx35IAodz1M/Ufiv8e+XfibwY8H4TH4nwz5XVNPiVVbBIBIIJE+bBQ2wr7Rcq3ekDfp/9gf0P+GPDDw3l6tVAL+U+P/jTzIea/ibzHPjJdUb0EYG9l2/e5+fXxHiF8P6DZ8w8PVej6raP/G6kUPvpbXbp1gaizKN9x2kCpYcUvFjkzhW4G4+5nMPpbLsoO0CeYH1AAa2i1YAUChGyfWzadhwZO6BqBPIp9VQCavc1OropoHkxUcOrMTRuodIIrgNA7gc2IvNjpCt1XaMoAgTOP0xqQ18QaiSQqAV1JjPu+k8AXOFD2gAbb1AC3X9Z2/8AF/KJWja4dQ/iEB2Y9dx0ia4rNxJlhqPIEDSrXKCmBqge8zY3UHcyl77EQKq+kkGyfiWQgLYO/WZrogw43BLbEbQKsbZt9pHIASAv8hHsHe9owYH/AAwCfniBE42WydNEDgxsA0ophG7Uy3HXUgAAFfBgOSzEFbG3FCFQW5rmBRzZNmPoN79NtoBVdvtEagfaLF7xmITf/LCUJFrxAbSGAoi/vEZTRDGieCeIP846EdYyatILck3AAdlbQqayALPQRmJNE2W47AflEStTe4GuTtA6KQCv7wJ5GcMQdxENlR9ozhuDsDFYaFsnaBLHw4PUmo54k8JBJ6R9q2H6GAF2NdIXyaDsfyksjhdhzBjvlgDf6wKrut1u25nahfz8watq6RG+q4D7dp1DsImqDV8wGYA8cCLsdiBOucDzATIAKIG0bGpKA9TObcGPi2XeAoLXTDbvKgLsLv7QExSpBtOf3gMN7XlZdVNdOODM96qI2YHeXwgnUTubgOpugy7fEcKbNL7Z2ofeOrbVW0AfSvNX17xhYNh9usUmTd9PY3Ad2NWTYPWVxkKAoIO0ya9Yo7RtV+3j5gXaiTt952r3Be/xJhtudpM5NJphsevWBTKgJelLHaiKFQnJ7bNg9bEGuhFyEONjR6GAmRiesTj7wtexrpv8RH4gdqRQRpr7CRVNJsH8pcbRdKgcbwJ7wi4TtF6QDRPEVq7x+g6QNxsYCXXE6z3nGCoB4EFwniLAJMZDtJnmOOIDXcN94ghbiBTSrV+8Oo4xwGJNAiJj4MbEBQNC7gVx5CdQar6SoPtFG+8gp3aKSa/OBfUT12iOtNsZw+mBvqEBlFtVVHCgGksn5nL9bfaWX/C/KBmUvRAr9ojg3sATzfePl2Y13ig+wwOVjX9o6mvzkx9Czj9QgV23i5H4NDmH/pCRyfT+cBy+5EQxf8xhbiBxpfqgLWKgxb6r3iGA5MQmCCB1ztXxAYIH/9k=</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAHoAwwMBIgACEQEDEQH/xAAbAAADAAMBAQAAAAAAAAAAAAADBAUBAgYAB//EAD0QAAIBAwIDBgQDBgYBBQAAAAECAwAEERIhBTFBEyJRYXGBBhQykUJSoRUjscHR4SQzNGJy8AclNUOC8f/EABoBAAMBAQEBAAAAAAAAAAAAAAECAwAEBQb/xAAmEQACAQQCAwABBQEAAAAAAAAAAQIDESExBBITQVEFFCIyYZGh/9oADAMBAAIRAxEAPwD57aXmCBnPnVi2kVpAQ29c5DAx5KcVTso9LAkuB1r6jjznpng14R2jqbWVhzGfKn4pFJw4C1Ghmjwuh3/+3KnkkJII3HrXobPDq08lKYao1EOd/wAtagzkBGOV8c0NGVWD4OQPGj/MrjvKPtSWaORprCyMjWsYwFJ8aMQsyBSWz5dKQ+aHQ6R6Vut558+tScWSlTlsYbh+uIq8okP+4VNHw2GYntSBz01RjuW8aL8yQOamheotAjVrQxFkG44DPD/p5yTz0+NPWKTW8QDko46NyNUP2jFyZQdqXeWC4di86rvkUylNq0kO61WatNGH4Yl4A26N4dDVXh0TJF2RYhk5EjehQo6kMspdcbACnknCrupBHjXPVnJqxyVKkmureBW64c08bLNN126YoMMctsGVrkFQMKrb5rPFbvMbAOq+hrnNUjS96YhfHNUpU5TjllaVOU47wdHiZzHI528UXnVKAiaAHXsTtg1CtbpEgIMr9OZo6cQVABqZvOpzpSeBJUpL0WXcJ9NLvM2/exUfiHFo7S3eaVsKozjO58h51y7cZ4rxM4i/w8XUocHH/I/2qElGn/JnVxvxtbkZWEdhf8Xt7Ef4m6UHogGWPtXNX/xXczkxcOgIONmYaj9uQ96FFwW3SMz30zSMeaLzb1NavLAqGKGMImdlQZJ8z1NSlXto9zjfiKNPMl2f/CPdR3N3L2l1c6zzJ1Z0/wAq0t4kCSSEJ3SAgIPPO7VUlkWGM93CY645/euau+MwwSMLZGdgcHJ2/vXK5yk7s9qMVGPWI08h1nAbn1O9eqb+1IH7xhfJ32avU/ZCeOfwfWGb8EZX/ic0ZQ6phhLq8eVGtZSBTomcjAC49K9qEF6Z5tScltClu7kBXZmHhkCq1mrJzYY813/jS6kN9UcfqKZjuEjGkRqKulY46su3oe7XG3OvFgfWl0kQnUNs+dMIQcYf702DjcbM2jiY70dLdSRrWvI6rzIrbtY22LMPQ1N3JSlIOEijGenga0E0OvZR+tY/cFdLMT6mlZbdRlon9iaEUnslGF9lNRbSDeNM/atPkLdGDR6ME76smooku0fCAsPKjG5mxiRNI9RQ8bvhjeCa0y4yns8C4Cn/AG1Pllljc97Vjk2akTXckZyScVq1+zKQMk+lFU7Dw4slsfvLxtJZoxIfOpMvERGrse4FBJ8q1YzS5zkD0rm/iC7WKNoEbLttgdKnVrKlBs9PicZSkopDMXxTdKo1wCTGxIz/AEox+L5DHpWHsj+bdse2BUvgU8RkWOZgBjc9D/euptrSIHJVSpGefP8ASvKXKrtfyPWnxuOnmBzicWikn7a5nMr55yrsPbO1WbLi0MuySGQ4+lQox9jmq8FtEFHZpGQc5OAan8Y4cbuLs4DLBJzXRkA+oqT7PLdx7w1awN+IRxlpJiMDlqP8qi8R+JtEmmyRcdXIqbc8C4oj4aN5B+YZNKvwm7QkPFIp8NBqX7vSLxhD2zN3xOe51GVtz051PyxOedNPw6dASysMeRoZtJ1Gwqco1Hs6IumtAct516t+znr1TtL4PdHUpaXER/00mfAHVTsNzKqgSQuPak0+IYScGKMDzzTA40u+iW0XHOvfp16XqR4tSnUluI4l+gX/AChkc8tR0v4jgFd/IikoeI3UgYxyWr+ZK1q0vEpdg43/ACFKt+ph9IPit+iulxbnrg+opqIqwyjGuaaPimO8JMZwMFa9/wCoQoJDLKqnqGB/nTxrwkTlwn9OrAb19qzhvyiuYjur7OpLp2OOWc59qdb9qlLdxdNmbPVQAQcVTvH6QfCkvZbKOeQoZjuCcL/CpZt+LQP2ZujlgGyX2PpmmIJeLwkLJKEyCR2oFbyL6TlxZrTQy1teHlFml7jh123JcU6t/wAVhjV5IEkRtgdSrv8Aegft66eQxBbfWPwdopP8aXyerr/TQo1U9HL8e7aEwQO5jZ35qcHGKUjIhmWKS9nVsdHOKa+IiPm5jJNItyOajcL1x1qE6qREZJpZCzd5MbEZ/WvE5ldxqPP+M+g4tFSppHTma3gt2deJSytj6DMQM+dc86WTSmW8vSSfwQITj3NMXhWKLswHDAiNRvgruDnc+WPWgcZgs4Y4FtLYqTAhdmzkueYz5fz8q4ZcrtZM7afCcE3cFLc2ixmO1tmyPxu+T9uVet+M3tvhe01qBjDbii3ttaCezSHtGjJKOCfBUJIIA6sR7VQ4Dwi14nxu2gWCbsmj1OsMveB1lQQfQA+9Sly0l2LriNuxi3+LbmHGuBGx/uIphfjSQbmwZg3TOR/Cp3GrMxfLW6xy65mTsyZWbUCSuCCcA7V19r/4+vLu6FtHqB0M2rtnHIgYxq86lP8AJxgl/ZSP4m7lf0SrX49hV+9ZMFG3cYU6fjnhjgF7KUHPMAVys/w9eftK8tEidpLTW0h1clXYnJPjTFj8NyXNss5zp1aQDIAfUZJ+1XXOXtnLPgxinJ6R0Y+NuEaSGs2II3DRA5qff/Evw9d4UcKSJurImD/GsR8HtLKEPJrluQ+cPHkAep8K0ube2YyEDSxPPVgKdjnp980XzmcyhSWhD5/gJ3+WmPvWKOyWJP7wBn6tkb/Y16t+sfwPWn9ZzLrobD5VvOiQR6wScEeOK3toe0fuzAnO+pT/ANNUks4ZoWBvlV0/Kh/XwqLmi0pWwSpVCHdRk8sGtO0KnYHam723W3tlkS8WcsdwAe77mk43LgjcyD6WB51lP4FK6GbPiFzbuGt5pEcb90/yp2Tj1/IWM9yXLHLK4GCfMeNSG1A5YYfx5VntIzvIN8U8ajWmZwTOhh+IS0J7UM0mc60YgnfYY/pQJuPXslxrSQRbaQuN8efnUtSkeCU3O4z0rLtE+ACFbxxmqS5NRq1yXhhfQ4ZrpmaT5iTc5JMnOmP2zd5USMxjBGcdcedTIZoYgRIrS4Gy5xmm+EwG/uNwI4QRnTnl6VDz1IaZpU4tZRS4hxIXERjgXsoSNwHyf7VNHZoBpIJPInkP02ovEhBEeytlLAbawu59aQcdmxyuGH4mbf7UZcipUd5Apwilg6qzjtp1aS4kErNgSSqS4HXPiNh+tNScL4elpBq4pA6tIsekQY0gs2GOTuNv1FcNbXEkcpeByrjwNGveJ3UqKe1xpOwA0n12612N05Qu0PGNSErReDseIcH4PaWk868R7eaJSwVBjLAZGPHmM0G/FkJmgaX5tIymHV1yDsT0PU49q4kXVxNhXmbAG23hRxFPMyzhi+R9Y33rmTpx9HRKVR+ztbyPgkkkHyyXUckcbyuMB9RIU8jjAGw9qpfDt9w3hfxXcSm3lzAvZhI1GWJI6dNydv1rgbZbxXCpNMfEDrR3XiKzSSpNJE7HVkEB3IPMkVKboOLVgxqzUrtna8du+F3X7NnPaRXFvfQpoMWCpGXz6d4Dry5GnuH/APki+jupHEcZkJVNTRHrg8gfHFfMJBxKQapp3yWz3mzv41p8tMzZYswPPU3WudUKPVJq9i0+ROTbT2ddJ8RO090wVlFw7CRgpwxJ3Gf5Ujc8SnaJIopVEYOrTtj1rnri3O/eAUZ2TeloxLI4iiY56Zp+kdnJKHb2dJFxGdQ3+JKq2c6untg5rWTjEZcB3EzY3ZoxhvXxqHDbX8xKxxMWTmp50W5sLiCAvMUVl5x9R6mj+xPYvigh39pSdI7f7NWakpczaRua9T9UP40U7We1igYOuD0G2f1rcgyjQkjFm597kPOp/Z6wQMMAeXU0M4hYag2rqDsRRdiShm6YxAiLLhsOGP0kcqJJbW4If5gIWBOwzj+lK645ZMhnDHzoz4k1MGAOMGNRSDO5i5mdCqRu5I21ePrW0KibIeOFDj6gQM0hI75GsnFHh/eOXZxoA9xRQzjgpwycPU6ZIyXA+ojIrVrcXM+u0jjJIzpMmMeopSZYVU6GEjEfX4Vmwnggl766j0J6ULCJe0Hj4VPMpYKFIG+M7fpTkLGy4ZqiuFUyMQxOA2MbY3pWa/uhIzrI4VhjQW/pQlgW6jUyOygfUedZ/wBgy1+7RtazRR/vfrYcnPOlpw7tsGVTvnFWbLhVvcFYkckAYzpJrobL4eMSkFCzK3dBcHI9P1odkicq0Ys4W3sJHzrYqDjBxuadbgcki7zIzfixt/33rrOztDE8SG3Mh22JyxB5YrnXnlhllWZRrVsd3YL4Usq03hGjyHJ4MWfCrZHXKsp5MTvmm2ntbWErqjyfpXTt70vJxWCNCtzEDJjYgk58Kh3MxuZdZBGfDrUukp7KR7T2XrrjyxxqsEIViMZG/rQLXiUty+mc5UHYjYn+tShZT9iZjlUBGAebelEtJI4xiQD6s6iSNPsKbxRSwFxVsF9OGNMcxJPIpPMDIrS44LcwqGktpCPwgIRz8hmpthxNhLgyMME6HUgGnLr4puWdU3OnYsD9XtS9JIg/N2shee1miOXhj9M7/amOB9mLpCkCiXOW7gzgeu1T04nLPclp3yrHcHH6VXESJEr/ADBRcZAHNvIYoTbSsyk72tIq3N6iwyCKDsI8kGNPrJ8TjlUM8SJXS0hlR86ldeXlS7zLPcqiPIuTjBbUMeNK3MTRuCjhwPLBA86nCmvYkIIoCG1A/eEK3MgFgBXqliOYjIJx616r9X9LWf0HbMYWyQT44bFGv7iKazUArrzv1agQWzMpaRiq00LG3P0lywHXGDVdmaSd2SUL6iFNHgt3cau0Ceu1VMRQsyqsZOMYU0G5SFQGkKA+C/SfSnsM6l3oQEOli2C/iaGwXmhwRzFHkvmCsqDbl7UrGcsc0bDpPbMkgjYYoqW08kLSCJmiU4L9Aad4Rwi64txC2sbIqJpm0q0jYXlz5csZpu5hn4G93wq9z2vaaH0PldvAdfWk7q/VPI/q5LspNR7MjVqGMYzvVO8whSNIdEgwpXGMVrccPNhcRfLf4gNhshSQw2I863uLmeScuVKyg6s4P9aLs1c5p5lgvfDaOJI1vtKRNyAGSfXFdYj8Pt5hCs4LAErCSDjfoc7fevm1pxCS3bVIoDEnd1yR7VtPxBMGQSAsCNICYx6VLpJnJUpSlI6fii9kdUHD0EZYtknGDyznO5rm74vAzNJp1OPpABAoVxx9JGJ7AHYAZJGkD3qZdcQe4lLttnoM4rKm0ylGjNbBzapZDq3PU1ssoUBTggHpQGk17tnPlWEVW51ZHbbA3cXzMhhAGjoDv9qSZWO4JNMqujDHDAcgazLJJFgrjQ+4JA3puuARxoUQgMDggUeBWlYCJNT554zigk5JLbmmLCbsbkOMhgO74Z86R6Gei1PaW4kBaXLD6yBkj2xQLxnK9tErG3U4Xb70C54hJNKxlTKk5Yhdz70b51ZB2EZldRsdIK5B9/aoKL9kOstsnC/nUjs3C4GxCgV63lZptcrk+q6s00nCJZULaolGerj7UO6g+W7mpWA3OPGqLr6H7Q0gr3aazhDj1H9K9SZlYnKooHhXq3UPUo3JVZQJUKxcgQf4UNrmTLmLLRFeZXlQ3YS2TylHKxuMuxJBJzt/3wpd7uR4xHGoC+Qp0gKJqU0nUWwSfXaqnHl4IPl4+DGeVBENcko0kvnfIqHMro3e5+HhWFYjG/60vS7TudClaNkbyRFc/wD5WI8gnFEDNIxBOpj4nNHjj0B43UhsfUOlUsTcrA0v7mMgxzPGRyZG0ke49aft5ZLu4STiM0k7Ntljk4AGDnw5/ap7RhTgDOavQRQWlvbPLdxayuoxRDUw8mO2DzrKCbuJUnaNkNTztY8OSRBo157Eas93nn0/vURr+4ddpGGOtWviKBr2YGIqI0XEUa5IxzO9c9JbTxbSq0a/7qzV8s56SjY0aYtkszHPM0DvMSd/6VliMdzahmQ4AyaB1pGwQnnWGQjYZrAlKnPOmI5Qx7wz5VjO6BLEx2HOtcGM77GnMrGCdLkdM7UpK4brWuCLbPJLg529DRZHLAH8DDkOlKcjTcH72IJ+RtXsedMn6GcRd10uV6g4rw2IPhWJGJcnxOayneyB5UGEK04bA3xXkdFI0j70BjnlyrKdfShY3UZbUwA2DNuMbVsIw2e0kwRz60vq1bsv2rysxGkN3TS2FsGMY6OCKzWm35TXq2TFEWokt44lDEBs89q2hgS3fUwzjcADNLTk6udGiYnck8/5Vm3ck2z1xw/tGaW4uI48sR3iOXQ7VOKaYyoQEkjLY3HpTt7v2p69qB7YNJxfVj1qiHi3YPbWTOvbRjIXGV6mqnBuHJfXcYTMkbIXkAOMAZ671ngn+SD11Lv7imYCY7xBGdIaTSQu2QZBkVpu2gJ9nk9xLhycOHy3aJKzgSAsMhcj8P8A3pUPsJ4w0gUnBwHPIGqd6T28o9f4mkeJO4s7aIMwj7x0Z2ztvissq5tSsaDiNwFK9odR5tmlJmkc5ZmPqaGvMe9Hf/LorIeqi8I0tomnk0czgn7DNLGn+Ff+52//AC/lQOIgC/ucD/5G/jS+ii2LVuhxvWlET6G9BQCw/wAwey0MAfPrS7nJrDcq8eS+lYCSRinODsq8StxIoZGbSwPIg7UnW0RPaJ/yFFbCzNwuiZ037rEb16LbP3o3Ev8AWSetCj6+hotWZloEaLDnDEDOByoZog2h28aBj2CBlhvWmd9qwedYoGCa2/Ma9Q69WMf/2Q==</t>
-  </si>
-  <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAHoA2QMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAACAwEEBQAGBwj/xAA6EAACAQMDAgQEAwYFBQEAAAABAgMABBESITEFQRMiUWEGcYGRFDKhIzNCYrHwcsHR4fEHJEOCwhX/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EAB8RAQEBAQACAgMBAAAAAAAAAAABEQISIQNBIjEyBP/aAAwDAQACEQMRAD8A+KLGRCZcbBtP1rS6e6SKLa9OIpPys38J7EHkVQmQjKhsrn0o5ZJHCK5DLuBj3rURoXPT5bGfBBMTeZGON/n70yG4W0RZpUJXVgbcmjl6j4/TrWzwpmL4RmO6Anf+v9aR1GaGS1jhZW1wBlI4Vd9sfSqIu+pJMQJI2CY2EbZ533PrSJGsHZfCjmG/mJ/5pHT7drm5ji8uknct/CPpTriCCNvBtC8krbEk8D6d/vU0XbS46cWYm0uEVDuY5dWB6781fkijnhaaynE8IGWxsyj+Ydq8+lsPw4ZS7zSHgcKoO5Pr2piSCzkV4LlFlUZVgmTn5jirovzw4Ubds1kTJhiK9JFKl9bq0kfgyv5RIFwhb0Pp8/cVh30EkVw8cqlXU4II4pSVSC0xEy1SEpsYKsDWVEsXrXEdqJmJau0nNaRCLvvRnSCRiu04ocEtmoOFHUYwaMCqJWixUCjAoBIrqkipxkUCyKjFGRXEbUCiN6g0wigagnFTULR0FWYqk40HYrkk75O9TGY1JUgOuPOvc/KkzuGMhXHlchfUrSJdwG78Gs6LaKJZ9cflLNwP4BWjc9IDvpsz4msZJJ3HfJrHtnYEY9e9eu6VcosSTTYJDBCONTE7A/betTKVSvYE6L01LePBv7gMHfI/ZpwR8z6/P1rDtmaG7jkOshDqHbB7H74re6y6S39y/is+phkEadIA2/4rDtlU3iRM5UsSjSZ5zUou/D7hOo+CMHWjLHkAeblTV7q/w3c4/FRRaUxh0B4Pc1iRDwLiKck5jZZMj58j7Gvt3SoYr6zjdk/ZyjOo7hj3/rXTjmdTGerj5b8PXUNtM8N5B49s7hLkEn9igK5cD+tX/iXos9vJJGXE/ggtFKpzrh/2/wBav/E/w3F8PdUh6hbqWtpGbxIsksD/AC+xzjB9fto9M8K7gitImaVLeJJLSUjBaNjhlIHoNH2+VPH6pr5qB5scU9gmnAp/V7A2PUpoR+RXPhkcFTuv6VVAzsaw0gEd6aDmlEb4pkex3oCI2oKfpyNqUU3oBO9SnNEFxzUhcGgIjauBqM4qOTQMqM+lQKmg4YNcRUVOdqASKAjamGgIzQCKnNdjepoM5lKyNHgg8Y96F/3IORzx3NWbiOVgtyYyUl0gP2LY3HzqOowSWzxrcIqvvqUH0J/sVBWVyFGM7Vu2XiRQRuWRVgie5JYnc6go/U7fKsRzph0KwOptRyOPStKyneSO5ZX0qixKvtgHGf1P0pFHLLGZvNh0HJOSAeBt39v7zSuWjODGjpg58y7n9aZNHI6kKCI14XGN/wC9zXW1nPd3EVtAniTyMqIo4BJ21Gpq+8ynW0sHiEXgIQgrnTkqrbhgPYgfrXvP+mfxDJNE3TLnSBDgofavB9S6K9jLpcrLEshiE8GWWRxjOM84Jxt6UuzbqNvOxtyUuEyDhtEg+YNa46y6x1zsfoaQQ3EHhOqlWHDcGvAWNuLbrs9pDhWgdiFY8rlWIHfBVgPmtZ3Qfj27iYW/VbcsBgagCH9DtWvdzWknxKs0DSyC4hVDHH+VnOwJ9wN67Wy+4xJZ6ea+PBGep280OyS2qMue433ryuDrr0HxWssfVHimbXJbqIjvnGMnH61iohc5xXK/t0cEz86hV0vg1ZEeCF7mlSphqgkNtipUZoVXArgcGgboHaoZalW2qGbJqhbUNEwzQ8VAYqDXCuxQSu9SRQ8VIO1B1Cak1FALVGalhQ4oGdFuLyyD3MNv41pH5pQ65QEdwezelZ/UmEl4QhJQABMnJ09sn13ojfXH4H8GJWFuGLeGOM771WkOuUt6ttUtM9jkGp0jQ6ycLstX7CFkhvNS5A8uAcbjP+tZ2PODvtvtW109f2MUJKkspxqONye5/vio1Jtwz/srWWOO4Es0sg/dwHZf/b3Pff6U4y//AJN5nIUvEdMSHz77Y9iRkZ5wTWjJD1uDosf4C08K2CamuMqrMvuSdh/KN/X0rGaEQ2qdQtmLBCAzY5b2Ppnn/So6/VkbpvJunXkAMMdx1xo9MFvH+6sF7DHqNtvXNWek2idTuDfdRH4tY5PChTj8XOecfyj+mSa89BaXFn0y66jNMqvfDwoyFyZCSS5BP8OAcn129a9DZdSFhGY7LAuEi8O3dtzAuNzvsHY4/sYLL9Of6aHUvhu0uFmECq97CcSNFhVaU7lAOAAPr9qdZdOTonWLKa4VkiRHzKi517FVV+445+5qfhpVsen28LTpJIX8WUA51MSuo5POxatf4gdG+FL6WVeLcKCe7FguPuM1eerpcx8wvJzcTSSuP2kjFj8ycml25OdOMfSnIEPO9NiRcZ3PzrowW6b6hSdBJ3FXQAp2FDgHtQUHQik8VemGBVNuagnfFQc1I3FEFyagEVOmj8PaoxjmgHFdRbUNBBoc4ouaE0HBqnmhAouKDq6urqDIcDRk/mPanWtq824Bwdh71odT6ZDb3yRJMB4gyyA58LjAJ7mmwm3QMkQbQTgluWHvUkVRubOSCQFyFypIY4Irb6EZxcmazUOEWNfXwwRux2OBtzj0qhewxizfwhsSNqt9EeIteyiyNw0TBpFjY5ePBBAX7HIpV5vtS60Rc9WaOxvpbuEuWRWcnQe49O/Ip8X4i2gFqTNGoJziPIGeT5h68Vm3MgaSWHp9q0MRJJV93I9Cf8qvdPvpLJvAmeQRsuiRCdQGe/65rLp8dmvQzy3z9EdnjhnkOE8cAlsDfSRwmPQAZ25FebHi5OrOc7g9zXs+gPDezyXMJXw3Cpc26N+UHgr98g+uxHIq71/oMY6c/UIljkMOTI6Lp1pthscbVrl6Pn+HynnHkLDrDWHULe5liaYIjAodh3x/l+taPUPiK56n0qKylY6deuQjvjgD0A2qlK8LvhQvG21IEWW8igDvWseHVmG3jK6gxHepKhTs2a5FZVO+aRO+k4HJqomZiNhQ5I5qWkJAJxtSHbJoDbfNIaPPFGuSaaqjaoqtoI7USe9WHVcbUhhjigMtSpK4E5qSM0Ce9TjNGUNdjFQDpqCMUZNQ1ANQa6poBHNTXV1BzJHbzF8sxZvLr5C9q0YkgngwcBvWsIssjAsxGBgb1YSUqmNeAKaGSEpBNG658px6U34dlRepSxtDrlk80ZSQI+T2UnbvxSjcRi3kLEatJ9+3+9VumzGKWBwiSRu3hvG/BPbftn1rPTXPqr88N7YXmm9lna1Ykaom0k/4gNwfUGrFuljd3JiClLKNdgkJYuxA3JB55A+VR8TyXUkVvJGkrW8nkBkjHiKwP5cjf07744qp+Cv4+mQ3Kg6ME5UjWozz6496k9xv+brS6DfQ9C69G9vKXiV0GSP/ABk+dWB7jn6V9esZrO4uLrpyOqxa9LRNwwIJOPYjfHvX59SZ0DNq8zebJ3O1fUfgnq0d6IFnYR3caFoTz46rvo/xDtV3Hr/z9zrm814rqtpJ0nrF509yddtM0e/cA7H6jB+tFbykbsM5r1X/AFItoZOvQ9Qg3ivYVZSBtlQBz32K15xUVNsVuPD1PG4FpCAMZqu0yh8tkntVt9OKpyEiQFNmByD6GjMm1JfHK7HvQEoWOOPemMuY09hvVY0FpcY4qGbFDE2VqXGaAfEyaht6gc0RIoF4pij1FCOakkigZtjtS3FDqOaI70CqmpI3qQKANOagrTdhUHigSajNE1DUGKGI70YlYDGa5oXFLwQd6yputmUjPNNgRnwmoKrY8/YHtk0pPUU+3iYZDN+zO7KDyRxQev6P1OK+0PcXQhlZfCnt5ow0U4HDe3oTWxfdFt5IpLh5UiiERCGEnT9Spz/WvBPKzRxeKyFYV0xrpAwM5oV6lf5KxXMygn8qtgH6Uxvz9K1xCVd1VtSgkBvUVYgvpLJLeSFpFdG1bH+IHmuuobkv4kpZi25JocIYVSRc7cjtzTNZ56vN2PqDyWfxF0Jra1lh/ERYeJNW6N3z3CnfHzHGK8dcJcWsxhuonikA4cYz7j1HuKxun3d/0y4SWzfddgcA7eleysfiWx6nEtt1qKMqFICyMVKn+U/71eb9O/c5+X8pfbzzyUETaptQ3C7n/L9cVvzn4WUjAuCMb6bjV/8AOazLi8tpAYOm234e21ZIbzPIfUk5PrtVrM+Pw/LqkndduaQw7DkVZVcCkOCucetVw1XBIOKsocjelhMnjeiIK0EuBikFsGmM2aUeaAg1EDmgC9xRDagmp1Co1ClsaA870W2KUCRRhqCGG9d2qTQk1AJqKnvXUGWWOTjtU4DjBoP4jRDmsqgQhTzReIV2AzRdqWPz1QRLtwu1NiUxEEbGhFTnymiLKyTNtq2qJFx6UMXAprcVREUmn8w2o2uFbIVd6U35KVF++FUXoYHYayNjVtITGQ1Gn7pf8IpjflHyoI1Fk3FKUqw/KKan7s1Wi5qoeAANhSn821O7UluTQJcEUrGTV4AFdxS8DPAqKCNfaiZRjamD8pqDwaCq+xpZ5psnJpRqAhvRYxQrTDxVAZoc1JqxZsQJMEjbtWeriq2fl966r2tsHzH71TqS6Y//2Q==</t>
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAHsAxQMBEQACEQEDEQH/xAAbAAEAAwEBAQEAAAAAAAAAAAAEAAMFAgcGAf/EAEAQAAICAgADBQUEBggHAQAAAAECAAMEERIhMQUTIkFhBlFxgZEyQpKhFCNSYoKxJFNUcpOiwdEWJTM0Q4PxFf/EABoBAAMBAQEBAAAAAAAAAAAAAAABAgMEBQb/xAA1EQACAgECAwUHAwIHAAAAAAAAAQIRAwQhEjFBBRNRYfAiMnGBkaHRQrHhFMEGIzNSU5LS/9oADAMBAAIRAxEAPwDy2eiecSAEgBIASAH6BuAFqLGItRYyRCLAll6JGSIrrjFYiuuFE2ISuMRelXpAQhaQQNAhv5xAd9zo8xADrufSAidxADk0wA4amAyl6YwKXqgMO9UBh7K4hlBTnEUYMg3JACQAkAIIAWKI0JlyCMkvRYCbE1pGTYmtIyWxVdcCRNdUZIqur0isC8VhFLN0A2Ymw5jU2wGwpTh4QeEdOvKAb2F7Syv0GpXFL5F1h0tSdT72+AHPcW7dRVsqMU95Ol5mj3AtRbKa2FbdPMb/APkLJaOO5PugI5NPpGBW9MAKHp9IwD2VekLGGsqjANZXAdhmr5xFWfLzM6SQAkAJADpRAC1FjJYhFjJYmtYyWKrSBIqpJRIyquAhdVUQhdVPpEIdi0Bm8SkgeQIBMTBFq0pQQlSqEGuQHL85VKS2MXkePLwy5S5PwfgK7OopFuRkW1LpT3W1Pi1whvP1Y/QTXFy25nl9rKTlBS92unj47/A/f0Ytf3Koq7UvpTy5dZGaLXtdDr7M1EcsO6ttx9bHPcD3TGz0DhqI7AqemOwKHpjEGsqgAS2qMAltcYwrV84DPjZkdZIASAEgBYgjEXoIyRFaxksVUsCWMqT0jJsZSkZA2qvpEA2mv0iEOoTTAlQfjEMXVTsgKv0iYIQuMHU8XLXTfn6RRm4u0RlwRzQcJevgZv8AzHA7aZv/AMfJyqrVXgdbVCnS9dN05D7XpK/qeC4xVozy9nPVYoPLJKSu/Nff4mjgLm5GSl12I2GiL4KzYCzEjR3rY1r15yp51OHDRjouzXpZufFbqvVmnZiVIEYvxcQ2wUfZnMpNnpuCVBnqJ2T5nrLshooen3CMmiq3FZQC44Qw2pI6xpg4tAravSUSDtqjAFbX15RgEevnGM+DmR2EgBIAfqwAuQRkl9YjEKrWMli6ljM2NpSNEjqUgIdSkQh9NcQDqavSSxj6K2QhlBDA7BkMpWJWo8gT15690my6LCpStmP3VJ5+kRSV8zMxO1u2LaqLO0OyqRWUHE2PZp15eaHr9ZotPkXgcmXtTRrI4KXLrWxtU115CVvQeJXHJt7Extq7O1RuqPw1IpZVPE7A8Cg82175St8iJuME22ZFmJZl5QtyjsUPxIK3IUtrz1yYD18/dNJwUWtzHBneXG5VV/MtvTfv0Om+eokUwVtctMkFdXGIDckYgTp4pQzzuZHaSAEgB2ogBcgjJYmsSiWKqECGMpWMljqVjJH0LESaFCdIgH0pJYzQx1AIJUN6GSykOoBDBgdc9g+6RZaGituJm0xLeZ8xJbLopz3rpoVXUt3p4dA69T8uU0wxlKao5tdlx4tPJ5OT2257lK2tXzpI2w4R4hvn5Ttcb5nx0ZqLvHze2/n9gS9vjCzb8PK4hcqA49K9XfZDBfyJM5c2JPIlH9R9bocyhouLI9oNr+Pwd4NeVm22OWrOSwBYMD4V3zA9BOjIo4YUjysM59oalv8ASv28vM1GqAGgNDpynDxN7s+hUUlUVsHupZTplIOt6I1HZLVcwN1ctENAbklIgBevWUICyc4ws8zmZ3EgBIAWJGgL0jIYmsRiYukc4zNjaRBEsfQIyWaFCxCNGhekQD6FksZoUJ0kMtDO4F1L1FnXvFKhkJDLsa2D75DNI7OzA7A9ocrHzH7M9o+FLVt7qvLXkjc/Cr76MeWvI7HPczSnVtbHVOELXC+fQ+r7TwXzMevu1VLKjxLxb03x/wB5rhy93K+jOHW6RavD3b2ModmdtXPwBsbFp87OI2t8l0B9TNMuqk9oKjzdL/h/Bjd55uXktl9bsAPYjIxsmjNxs2u/N7yz9JvyVINlZPhUAdOEAchobJnPjyShNTe57Gp02HPp3p0uGPSuhndte05wTf2X7LU2ZvaKtq7M7sPVWd813sAEfMfHnLnPLnl7K/BOl0um0WNRk6v6s2vZHtF+0MO9cn9Ja+h1W1rvNiN+HkOWtekz4ZQk4y5nVm4HThyZrXgudsST6mWjlkAtUb59JojNgLl6ykQAvXrLJAOvijA8tmZ3EgBIAWJGhMRXGSJr8oyWxlIjIY6kQRDH0CMRoUCIRpY46SWJGjSBvl03JZSNCnZA35SGaIdQg6kkDXWQzRIze1sOpspjbWr1ZFQDq3MEjlrR5dNTp00tmjze1bSjJMd2LmcDpg5Lu2ge5dzvYH3SfeB+QmOfFwe1HkdHZ+t79cE/eX3RvuEI2vLlOY9R0YHtNmgGrsmhnS7LQmy1W4e5rHInfXn0GufWbYId5OnyRx67Ux0uFzbpvZX4/wABuz66MXETHTGqWpAQqIoUA++ehKO9rY+R/rpTrvPa5+rK8JUxe1GesLw5ICWnZYlhvhP8x8x7pnqMdx4uq9fY9jsvW8f+TL5Gq1ZZgD5+ZnHZ7NWCyUK9fPylJmbTRnXiWjNmfeOstEsA48UYjymQdxIASAFqxoTL64yRVXlGQxlUZLHU+UEQzQogxGhQIEmjj+UQ0aNMhjRo46sw8Kk65nUzbNEaeGE0e8305SJeRtCup3bhpl0FSyqwPgJ56hCbg7Iz6aOoxuDMC6vw9GUg7Vl56I6EGd6amqPmeCelypvZpn03YmYM7DFp4e9Xw2D3N7x6Hr855uSDhJpn12HIssFOPU+Vtvx7+2+1cm1m4xaKKSBsEIoGvxFzO7SQksfEur/bY8TtxY5yhCTfsq/ruKRl4OY2PLZ1s+s6XaPmIpZJbK/IsW/HxkGVmZHBSh+4p4B8SBMMrbi1FHt9naeEMkZ5ZK+i8/jyv5mm6cWOLkYNW3Qg8jOFM+jcdrM/IdmPiJOhob900RjJ2Z98tGZn3+ctEsA48UYjyeQdxIASAFqRoTL64yRVXlGQxlMZLHUnpBEMfRGSaNEQjRo8oho0KDIY0aOO5X7LEbGuR6yGaJjqDsbJ6SGaRGo6l9qpA8hIZqmjAIajMsTNUd5USBy5fu78ump3RqWNcJ8zq5SxayaybrmttvIoXtD/AIetTOyC4wbVK5FmvCn7Lcvd5/GZ6hKS4vA9HsnJUe6fXdfhGT7O2VZmR2k9j2BVyLe5fQIYlid/A75emptp5S7mKiuRPbS06yVke7SdfBUjc7mqqkOymzbkLZ9odOfKbW3LY+adxx+zybq1yflR+W5FFqKjW2ioHbDhOl+AglJO63M17SUW3S5rw+HQ77BsI7PsoUv3WPaaq9roBdAqB8AQJxaiCjk+O59lo8082mjOXMuuPWZmrAXGWiGAv85aJYB/tShHk8zO4kAJACxI0Jl9cZIqvyjJYykxkMbSYIhj6DGJmhQYiTRx26RAPpaS0UaFLSGUmPosK70dcQ0fhIaRpFtD8ZqzWQx03kZm7No8NbmT2ximy9LzpaX0LmO9bH2WPoOYnVgnScfoeV2nppZoqSdePw8fkZXbYJ7KuryTx4vAR4SOE72BKyyjHHKXWjg0Ecz1WKD5Xt6+CZ8li957L9o2/porXHzCLsNKQ/DwFRvTE+HXqT5mcWPVzwx8UfTavs3Fr/ZbqSun+V1Prexu3sTKLKr99ZrXATzX5f7T0YZMeoXFjZ8hqNFqez5uOeFqtn0+T/szSvz6K8cBKdrYPESftaPPU0WKTlu+Rgs2FQUVB+1z5lXZOVXk1ZFuO7DHNxVa/urw63rfU89bHunNqPep80fTaSPBhS5J7otvZdnhJ15bmSNWAubrLRBn3t1lITAufFKEeVTM7iQAkAO1jQF6RkMTWYxMXUYyBtJgiGOpaMk0KWiEaFDdIhD6XiY0OpeQykNqeSUmKrfpJZomIv7i+t6rav1VilXQN1B5dZKtO0W2nsz4/t/2c7ZzblxezmobD2rtbbdpgB5Ea5+UvUZZZMXAlz5mWg0en02peo3vovD10N7P7Dw8vL7IytBW7MZu7GgQyMhUqd+XQ/KY8HI6u9e7fUzvaL2Twu1cepMWw4D02M6GgALs9eQ0foZLw73F0XHVNR4ZriXmUYHszdi4d+LldtZeRXYy6OgCqg7K899ff1nVHLlXN2ceTHppcsaXrwNpuFECIoVVGgF6ARbt7ksLc/WUQwFzykSBuaUIDY3ijA8wmZ3EgBIAdL1jE2X1iMkVWOkZLYupYyRlKxkMdSsCbNChYiTQoQHW4hD6aohjqaukllIZXVJLSF11CSyi7uwo2eQkllD5+NXd3RBJPn5AxS2LjFS5CSa9dRCyaZTfbTUNu2viY7QqbKBdTaNq35xohqiuxRLIsHao58pSJBXL6SkSAuUxiBup30jA8wmZ3EgBIAdoD7o0DEV79x+kZIqr+630jIYykD9lvpGSx1I/cb6RkM0KAN/Yb6QJZoUD9w/hiJNCgdPB+RiAfSv7v5GJsY+msn7v5GQ2WkOpqPLw/kZDZaQyurQ3tR8TJbLVeIXNyq13W9oUkdBNIQ6nHn1UYbX6+58x2hatNvGbNr7+ANr5ARZoj0OdzbpevsGTtDJtsBpeuxR9lnUDXyJBH1mKhN8qO+eowxVztfBP+xf3GfkNx2DDb4d3sfMgzox4Zr3l6+h5ubtDE/ck/mn/AOl+w2qm9QBuskfsMra+iidCikt0csc05StX9P5NGjehxk/xHUwkj0YO1uc2qD0CfWJWN0Cur9ypKRLAX1P5IsokG1T75gRgeTzM7iQAkAP0fDfzjAtRz+x+cdiovS0jXg/OBLQuq8/1f+aMlxG0ZOteBvxRkOJoUZf7r/jjIcWaWPmL58f+JFRNGnjZaHXif/Fg0BqY+TUdfrH/AMUyKY7NTGupPW9h/wC0yGmaJo0amx2H/ccW/I2zN34Gia8SnKUhwMetGTzPX/Wawa/Uzg1cZqu6gn8gOVh321bTEx30d6atdj4Aj/WOTj0K08Mz/wBSVLwoBh9ndqHbZdvdbPKuqlfCP7w1/KaRSreRzatRuoYr8/4scMJhrZyH15m5l/lLqH+48xrU/wDEv+q/B2arN6GOzD3tYT/OVxRS52Vhw5ZSuSr15UJ7oqAQ4Hpsj/Wc7d9D2YcEOc/3/JxYpYeFQ3wMnhfgbPNjf6l9Ql1Fx6UE/WPkFp8gN+Nkf2d/80doKYKyi8HnTYPkZRJwK2+8tm/7sAPIZB3HQAjAtVF9wghWX11IeqiUJsTXRUdbQQom2KrxaP6pfpKohtjacTHP/hX6QIbY2nCxjr9Qn0gTbNCjBxf6iv6QFbNCjAxP7PX+GKxD6cDE5f0ev8MltjNCjBxP7PV+ESLZSSH04OLy/o9X4RIcn4miimaKYOIKwRj173+zIc5eJsoRrkC7RVaB+pRF/hE2wribs87X5JYkuDawH6VcLalD6DEA6AE1lCKjdHJpNRlyZuGT2Ee0FtmJRS2PbYhY6JDmc+H2p0z28uOMcba/dgse623XeXWN/GZ6PdQXQ+R1GrzJ0pCgi7+9+IyXFeBnj1OWT3kKrorK8wT/ABGcs5OPI9zTw7xe02/m/wAnRx6R0QRLLPxOj+g0z3cbKLQE+yAPlFxyfNlrTYYe7FfQJblXKDw2EfCNJMria2QC/LyOf61pXCiW2wTZN2/+o0YrP//Z</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,24 +461,21 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D2" s="4">
-        <v>0.60277777777777775</v>
+        <v>7.63888888888888E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D3" s="4">
-        <v>0.60347222222222219</v>
+        <v>9.02777777777777E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,21 +483,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D4" s="4">
-        <v>0.60416666666666663</v>
+        <v>1.0416666666666701E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D5" s="4">
-        <v>0.60486111111111096</v>
+        <v>1.18055555555555E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,13 +505,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D6" s="4">
-        <v>0.60555555555555596</v>
+        <v>1.3194444444444399E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,13 +519,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D7" s="4">
-        <v>0.60624999999999996</v>
+        <v>1.4583333333333301E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,70 +533,83 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D8" s="4">
-        <v>0.60694444444444395</v>
+        <v>1.59722222222222E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D9" s="4">
-        <v>0.60763888888888895</v>
+        <v>1.7361111111111101E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D10" s="4">
-        <v>0.60833333333333295</v>
+        <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D11" s="4">
-        <v>0.60902777777777795</v>
+        <v>2.01388888888888E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D12" s="4">
-        <v>0.60972222222222205</v>
+        <v>2.1527777777777701E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D13" s="4">
-        <v>0.61041666666666705</v>
+        <v>2.2916666666666599E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,33 +617,41 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D14" s="4">
-        <v>0.61111111111111105</v>
+        <v>2.43055555555555E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D15" s="4">
-        <v>0.61180555555555505</v>
+        <v>2.5694444444444402E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D16" s="4">
-        <v>0.61250000000000004</v>
+        <v>3.40277777777779E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +659,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D17" s="4">
-        <v>0.61319444444444404</v>
+        <v>3.5416666666666798E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,121 +673,262 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>44704</v>
+        <v>44707</v>
       </c>
       <c r="D18" s="4">
-        <v>0.61388888888888904</v>
+        <v>3.6805555555555702E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.81944444444446E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.9583333333333498E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.0972222222222403E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4.2361111111111301E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.3750000000000198E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.5138888888889103E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.6527777777778001E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.7916666666666899E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4.8611111111111103E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D28" s="4">
+        <v>6.2499999999999899E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7.63888888888888E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9.02777777777777E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.0416666666666701E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.18055555555555E-2</v>
+      </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.3194444444444399E-2</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1.4583333333333301E-2</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.59722222222222E-2</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.7361111111111101E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1.8749999999999999E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2.01388888888888E-2</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4">
+        <v>2.1527777777777701E-2</v>
+      </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4">
+        <v>2.2916666666666599E-2</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="3">
+        <v>44709</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2.43055555555555E-2</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4">
+        <v>2.5694444444444402E-2</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -838,7 +994,7 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
